--- a/ACTIVSg200/IL200_opf_80wt.xlsx
+++ b/ACTIVSg200/IL200_opf_80wt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/work/turbinegov/ACTIVSg200/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73ACD83C-6238-F34C-8CB3-CA222B80756D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED4F384-A23D-BF4C-BB97-221593E5CBD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="21100" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -19,16 +19,16 @@
     <sheet name="PV" sheetId="4" r:id="rId4"/>
     <sheet name="Shunt" sheetId="5" r:id="rId5"/>
     <sheet name="Line" sheetId="6" r:id="rId6"/>
-    <sheet name="Zone" sheetId="7" r:id="rId7"/>
-    <sheet name="GCost" sheetId="8" r:id="rId8"/>
-    <sheet name="Area" sheetId="9" r:id="rId9"/>
+    <sheet name="Area" sheetId="7" r:id="rId7"/>
+    <sheet name="Zone" sheetId="8" r:id="rId8"/>
+    <sheet name="GCost" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="688">
   <si>
     <t>idx</t>
   </si>
@@ -1758,27 +1758,6 @@
     <t>c0</t>
   </si>
   <si>
-    <t>ZONE 2</t>
-  </si>
-  <si>
-    <t>ZONE 3</t>
-  </si>
-  <si>
-    <t>ZONE 4</t>
-  </si>
-  <si>
-    <t>ZONE 5</t>
-  </si>
-  <si>
-    <t>ZONE 6</t>
-  </si>
-  <si>
-    <t>ZONE 7</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
     <t>CREVE COEU~1</t>
   </si>
   <si>
@@ -1957,13 +1936,169 @@
   </si>
   <si>
     <t>GIBSON CIT~3</t>
+  </si>
+  <si>
+    <t>PQ_109</t>
+  </si>
+  <si>
+    <t>PQ_110</t>
+  </si>
+  <si>
+    <t>PQ_111</t>
+  </si>
+  <si>
+    <t>PQ_112</t>
+  </si>
+  <si>
+    <t>PQ_113</t>
+  </si>
+  <si>
+    <t>PQ_114</t>
+  </si>
+  <si>
+    <t>PQ_115</t>
+  </si>
+  <si>
+    <t>PQ_116</t>
+  </si>
+  <si>
+    <t>PQ_117</t>
+  </si>
+  <si>
+    <t>PQ_118</t>
+  </si>
+  <si>
+    <t>PQ_119</t>
+  </si>
+  <si>
+    <t>PQ_120</t>
+  </si>
+  <si>
+    <t>PQ_121</t>
+  </si>
+  <si>
+    <t>PQ_122</t>
+  </si>
+  <si>
+    <t>PQ_123</t>
+  </si>
+  <si>
+    <t>PQ_124</t>
+  </si>
+  <si>
+    <t>PQ_125</t>
+  </si>
+  <si>
+    <t>PQ_126</t>
+  </si>
+  <si>
+    <t>PQ_127</t>
+  </si>
+  <si>
+    <t>PQ_128</t>
+  </si>
+  <si>
+    <t>PQ_129</t>
+  </si>
+  <si>
+    <t>PQ_130</t>
+  </si>
+  <si>
+    <t>PQ_131</t>
+  </si>
+  <si>
+    <t>PQ_132</t>
+  </si>
+  <si>
+    <t>PQ_133</t>
+  </si>
+  <si>
+    <t>PQ_134</t>
+  </si>
+  <si>
+    <t>PQ_135</t>
+  </si>
+  <si>
+    <t>PQ_136</t>
+  </si>
+  <si>
+    <t>PQ_137</t>
+  </si>
+  <si>
+    <t>PQ_138</t>
+  </si>
+  <si>
+    <t>PQ_139</t>
+  </si>
+  <si>
+    <t>PQ_140</t>
+  </si>
+  <si>
+    <t>PQ_141</t>
+  </si>
+  <si>
+    <t>PQ_142</t>
+  </si>
+  <si>
+    <t>PQ_143</t>
+  </si>
+  <si>
+    <t>PQ_144</t>
+  </si>
+  <si>
+    <t>PQ_145</t>
+  </si>
+  <si>
+    <t>PQ_146</t>
+  </si>
+  <si>
+    <t>PQ_147</t>
+  </si>
+  <si>
+    <t>PQ_148</t>
+  </si>
+  <si>
+    <t>PQ_149</t>
+  </si>
+  <si>
+    <t>PQ_150</t>
+  </si>
+  <si>
+    <t>PQ_151</t>
+  </si>
+  <si>
+    <t>PQ_152</t>
+  </si>
+  <si>
+    <t>PQ_153</t>
+  </si>
+  <si>
+    <t>PQ_154</t>
+  </si>
+  <si>
+    <t>PQ_155</t>
+  </si>
+  <si>
+    <t>PQ_156</t>
+  </si>
+  <si>
+    <t>PQ_157</t>
+  </si>
+  <si>
+    <t>PQ_158</t>
+  </si>
+  <si>
+    <t>PQ_159</t>
+  </si>
+  <si>
+    <t>PQ_160</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1975,12 +2110,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2033,7 +2162,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2341,8 +2470,8 @@
   <dimension ref="A1:O201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
+      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K197" sqref="K197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2405,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="E2">
         <v>115</v>
@@ -2452,7 +2581,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="E3">
         <v>115</v>
@@ -4332,7 +4461,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="E43">
         <v>115</v>
@@ -4426,7 +4555,7 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="E45">
         <v>115</v>
@@ -4943,7 +5072,7 @@
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="E56">
         <v>230</v>
@@ -4990,7 +5119,7 @@
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="E57">
         <v>115</v>
@@ -5037,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="E58">
         <v>115</v>
@@ -5178,7 +5307,7 @@
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="E61">
         <v>115</v>
@@ -5225,7 +5354,7 @@
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="E62">
         <v>115</v>
@@ -5272,7 +5401,7 @@
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="E63">
         <v>115</v>
@@ -6165,7 +6294,7 @@
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="E82">
         <v>230</v>
@@ -6212,7 +6341,7 @@
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="E83">
         <v>115</v>
@@ -6400,7 +6529,7 @@
         <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="E87">
         <v>115</v>
@@ -6447,7 +6576,7 @@
         <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="E88">
         <v>230</v>
@@ -6494,7 +6623,7 @@
         <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="E89">
         <v>115</v>
@@ -7058,7 +7187,7 @@
         <v>1</v>
       </c>
       <c r="D101" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="E101">
         <v>115</v>
@@ -7152,7 +7281,7 @@
         <v>1</v>
       </c>
       <c r="D103" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="E103">
         <v>230</v>
@@ -7199,7 +7328,7 @@
         <v>1</v>
       </c>
       <c r="D104" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="E104">
         <v>115</v>
@@ -7246,7 +7375,7 @@
         <v>1</v>
       </c>
       <c r="D105" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="E105">
         <v>13.8</v>
@@ -7293,7 +7422,7 @@
         <v>1</v>
       </c>
       <c r="D106" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="E106">
         <v>13.8</v>
@@ -7387,7 +7516,7 @@
         <v>1</v>
       </c>
       <c r="D108" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="E108">
         <v>115</v>
@@ -7434,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="D109" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="E109">
         <v>115</v>
@@ -7810,7 +7939,7 @@
         <v>1</v>
       </c>
       <c r="D117" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="E117">
         <v>230</v>
@@ -7857,7 +7986,7 @@
         <v>1</v>
       </c>
       <c r="D118" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="E118">
         <v>115</v>
@@ -8139,7 +8268,7 @@
         <v>1</v>
       </c>
       <c r="D124" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="E124">
         <v>230</v>
@@ -8186,7 +8315,7 @@
         <v>1</v>
       </c>
       <c r="D125" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="E125">
         <v>115</v>
@@ -8233,7 +8362,7 @@
         <v>1</v>
       </c>
       <c r="D126" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="E126">
         <v>13.8</v>
@@ -8280,7 +8409,7 @@
         <v>1</v>
       </c>
       <c r="D127" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="E127">
         <v>13.8</v>
@@ -8327,7 +8456,7 @@
         <v>1</v>
       </c>
       <c r="D128" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="E128">
         <v>13.8</v>
@@ -9079,7 +9208,7 @@
         <v>1</v>
       </c>
       <c r="D144" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="E144">
         <v>115</v>
@@ -9361,7 +9490,7 @@
         <v>1</v>
       </c>
       <c r="D150" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="E150">
         <v>230</v>
@@ -9408,7 +9537,7 @@
         <v>1</v>
       </c>
       <c r="D151" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="E151">
         <v>115</v>
@@ -9455,7 +9584,7 @@
         <v>1</v>
       </c>
       <c r="D152" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="E152">
         <v>13.8</v>
@@ -9502,7 +9631,7 @@
         <v>1</v>
       </c>
       <c r="D153" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="E153">
         <v>13.8</v>
@@ -9549,7 +9678,7 @@
         <v>1</v>
       </c>
       <c r="D154" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="E154">
         <v>13.8</v>
@@ -9596,7 +9725,7 @@
         <v>1</v>
       </c>
       <c r="D155" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="E155">
         <v>13.8</v>
@@ -9643,7 +9772,7 @@
         <v>1</v>
       </c>
       <c r="D156" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="E156">
         <v>13.8</v>
@@ -9878,7 +10007,7 @@
         <v>1</v>
       </c>
       <c r="D161" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="E161">
         <v>115</v>
@@ -9925,7 +10054,7 @@
         <v>1</v>
       </c>
       <c r="D162" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="E162">
         <v>13.8</v>
@@ -9972,7 +10101,7 @@
         <v>1</v>
       </c>
       <c r="D163" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="E163">
         <v>115</v>
@@ -10019,7 +10148,7 @@
         <v>1</v>
       </c>
       <c r="D164" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="E164">
         <v>115</v>
@@ -10066,7 +10195,7 @@
         <v>1</v>
       </c>
       <c r="D165" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="E165">
         <v>13.8</v>
@@ -10113,7 +10242,7 @@
         <v>1</v>
       </c>
       <c r="D166" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="E166">
         <v>13.8</v>
@@ -10160,7 +10289,7 @@
         <v>1</v>
       </c>
       <c r="D167" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="E167">
         <v>13.8</v>
@@ -10207,7 +10336,7 @@
         <v>1</v>
       </c>
       <c r="D168" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="E168">
         <v>13.8</v>
@@ -10254,7 +10383,7 @@
         <v>1</v>
       </c>
       <c r="D169" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="E169">
         <v>13.8</v>
@@ -10301,7 +10430,7 @@
         <v>1</v>
       </c>
       <c r="D170" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="E170">
         <v>13.8</v>
@@ -10348,7 +10477,7 @@
         <v>1</v>
       </c>
       <c r="D171" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="E171">
         <v>13.8</v>
@@ -10536,7 +10665,7 @@
         <v>1</v>
       </c>
       <c r="D175" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="E175">
         <v>115</v>
@@ -10630,7 +10759,7 @@
         <v>1</v>
       </c>
       <c r="D177" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="E177">
         <v>115</v>
@@ -10818,7 +10947,7 @@
         <v>1</v>
       </c>
       <c r="D181" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="E181">
         <v>115</v>
@@ -10865,7 +10994,7 @@
         <v>1</v>
       </c>
       <c r="D182" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="E182">
         <v>115</v>
@@ -10912,7 +11041,7 @@
         <v>1</v>
       </c>
       <c r="D183" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="E183">
         <v>13.8</v>
@@ -10959,7 +11088,7 @@
         <v>1</v>
       </c>
       <c r="D184" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="E184">
         <v>13.8</v>
@@ -11335,7 +11464,7 @@
         <v>1</v>
       </c>
       <c r="D192" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="E192">
         <v>115</v>
@@ -11382,7 +11511,7 @@
         <v>1</v>
       </c>
       <c r="D193" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="E193">
         <v>115</v>
@@ -11476,7 +11605,7 @@
         <v>1</v>
       </c>
       <c r="D195" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="E195">
         <v>115</v>
@@ -11523,7 +11652,7 @@
         <v>1</v>
       </c>
       <c r="D196" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="E196">
         <v>115</v>
@@ -11570,7 +11699,7 @@
         <v>1</v>
       </c>
       <c r="D197" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="E197">
         <v>13.8</v>
@@ -11617,7 +11746,7 @@
         <v>1</v>
       </c>
       <c r="D198" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="E198">
         <v>13.8</v>
@@ -11801,11 +11930,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L109"/>
+  <dimension ref="A1:L161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11868,10 +11997,10 @@
         <v>115</v>
       </c>
       <c r="G2">
-        <v>7.3899999999999993E-2</v>
+        <v>7.3849999999999999E-2</v>
       </c>
       <c r="H2">
-        <v>2.1000000000000001E-2</v>
+        <v>2.1049999999999999E-2</v>
       </c>
       <c r="I2">
         <v>1.2</v>
@@ -11879,6 +12008,9 @@
       <c r="J2">
         <v>0.8</v>
       </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
       <c r="L2">
         <v>1</v>
       </c>
@@ -11903,16 +12035,19 @@
         <v>115</v>
       </c>
       <c r="G3">
-        <v>1.7000000000000001E-2</v>
+        <v>1.695E-2</v>
       </c>
       <c r="H3">
-        <v>4.7999999999999996E-3</v>
+        <v>4.8300000000000001E-3</v>
       </c>
       <c r="I3">
         <v>1.2</v>
       </c>
       <c r="J3">
         <v>0.8</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -11938,16 +12073,19 @@
         <v>115</v>
       </c>
       <c r="G4">
-        <v>7.9500000000000001E-2</v>
+        <v>7.9469999999999999E-2</v>
       </c>
       <c r="H4">
-        <v>2.2599999999999999E-2</v>
+        <v>2.265E-2</v>
       </c>
       <c r="I4">
         <v>1.2</v>
       </c>
       <c r="J4">
         <v>0.8</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -11973,16 +12111,19 @@
         <v>115</v>
       </c>
       <c r="G5">
-        <v>0.2374</v>
+        <v>0.23737</v>
       </c>
       <c r="H5">
-        <v>6.7699999999999996E-2</v>
+        <v>6.7650000000000002E-2</v>
       </c>
       <c r="I5">
         <v>1.2</v>
       </c>
       <c r="J5">
         <v>0.8</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -12008,16 +12149,19 @@
         <v>115</v>
       </c>
       <c r="G6">
-        <v>0.42680000000000001</v>
+        <v>0.42681999999999998</v>
       </c>
       <c r="H6">
-        <v>0.1216</v>
+        <v>0.12164</v>
       </c>
       <c r="I6">
         <v>1.2</v>
       </c>
       <c r="J6">
         <v>0.8</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -12043,16 +12187,19 @@
         <v>115</v>
       </c>
       <c r="G7">
-        <v>3.0000000000000001E-3</v>
+        <v>3.0300000000000001E-3</v>
       </c>
       <c r="H7">
-        <v>8.9999999999999998E-4</v>
+        <v>8.5999999999999998E-4</v>
       </c>
       <c r="I7">
         <v>1.2</v>
       </c>
       <c r="J7">
         <v>0.8</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -12078,16 +12225,19 @@
         <v>115</v>
       </c>
       <c r="G8">
-        <v>2.52E-2</v>
+        <v>2.5239999999999999E-2</v>
       </c>
       <c r="H8">
-        <v>7.1999999999999998E-3</v>
+        <v>7.1899999999999993E-3</v>
       </c>
       <c r="I8">
         <v>1.2</v>
       </c>
       <c r="J8">
         <v>0.8</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -12113,16 +12263,19 @@
         <v>115</v>
       </c>
       <c r="G9">
-        <v>0.4476</v>
+        <v>0.44757999999999998</v>
       </c>
       <c r="H9">
-        <v>0.12759999999999999</v>
+        <v>0.12756000000000001</v>
       </c>
       <c r="I9">
         <v>1.2</v>
       </c>
       <c r="J9">
         <v>0.8</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -12148,16 +12301,19 @@
         <v>115</v>
       </c>
       <c r="G10">
-        <v>7.1000000000000004E-3</v>
+        <v>7.1399999999999996E-3</v>
       </c>
       <c r="H10">
-        <v>2E-3</v>
+        <v>2.0400000000000001E-3</v>
       </c>
       <c r="I10">
         <v>1.2</v>
       </c>
       <c r="J10">
         <v>0.8</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -12183,16 +12339,19 @@
         <v>115</v>
       </c>
       <c r="G11">
-        <v>7.7000000000000002E-3</v>
+        <v>7.6899999999999998E-3</v>
       </c>
       <c r="H11">
-        <v>2.2000000000000001E-3</v>
+        <v>2.1900000000000001E-3</v>
       </c>
       <c r="I11">
         <v>1.2</v>
       </c>
       <c r="J11">
         <v>0.8</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -12218,16 +12377,19 @@
         <v>115</v>
       </c>
       <c r="G12">
-        <v>1.1299999999999999E-2</v>
+        <v>1.132E-2</v>
       </c>
       <c r="H12">
-        <v>3.2000000000000002E-3</v>
+        <v>3.2299999999999998E-3</v>
       </c>
       <c r="I12">
         <v>1.2</v>
       </c>
       <c r="J12">
         <v>0.8</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -12253,16 +12415,19 @@
         <v>115</v>
       </c>
       <c r="G13">
-        <v>4.6100000000000002E-2</v>
+        <v>4.6059999999999997E-2</v>
       </c>
       <c r="H13">
-        <v>1.3100000000000001E-2</v>
+        <v>1.3129999999999999E-2</v>
       </c>
       <c r="I13">
         <v>1.2</v>
       </c>
       <c r="J13">
         <v>0.8</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -12288,16 +12453,19 @@
         <v>115</v>
       </c>
       <c r="G14">
-        <v>1.41E-2</v>
+        <v>1.4109999999999999E-2</v>
       </c>
       <c r="H14">
-        <v>4.0000000000000001E-3</v>
+        <v>4.0200000000000001E-3</v>
       </c>
       <c r="I14">
         <v>1.2</v>
       </c>
       <c r="J14">
         <v>0.8</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -12323,16 +12491,19 @@
         <v>115</v>
       </c>
       <c r="G15">
-        <v>2.4E-2</v>
+        <v>2.3970000000000002E-2</v>
       </c>
       <c r="H15">
-        <v>6.7999999999999996E-3</v>
+        <v>6.8300000000000001E-3</v>
       </c>
       <c r="I15">
         <v>1.2</v>
       </c>
       <c r="J15">
         <v>0.8</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -12358,16 +12529,19 @@
         <v>115</v>
       </c>
       <c r="G16">
-        <v>1.35E-2</v>
+        <v>1.353E-2</v>
       </c>
       <c r="H16">
-        <v>3.8999999999999998E-3</v>
+        <v>3.8600000000000001E-3</v>
       </c>
       <c r="I16">
         <v>1.2</v>
       </c>
       <c r="J16">
         <v>0.8</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -12393,16 +12567,19 @@
         <v>115</v>
       </c>
       <c r="G17">
-        <v>2.3300000000000001E-2</v>
+        <v>2.333E-2</v>
       </c>
       <c r="H17">
-        <v>6.7000000000000002E-3</v>
+        <v>6.6500000000000014E-3</v>
       </c>
       <c r="I17">
         <v>1.2</v>
       </c>
       <c r="J17">
         <v>0.8</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -12428,16 +12605,19 @@
         <v>115</v>
       </c>
       <c r="G18">
-        <v>0.59089999999999998</v>
+        <v>0.59085999999999994</v>
       </c>
       <c r="H18">
-        <v>0.16839999999999999</v>
+        <v>0.16839000000000001</v>
       </c>
       <c r="I18">
         <v>1.2</v>
       </c>
       <c r="J18">
         <v>0.8</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -12463,16 +12643,19 @@
         <v>115</v>
       </c>
       <c r="G19">
-        <v>5.1000000000000004E-3</v>
+        <v>5.13E-3</v>
       </c>
       <c r="H19">
-        <v>1.5E-3</v>
+        <v>1.4599999999999999E-3</v>
       </c>
       <c r="I19">
         <v>1.2</v>
       </c>
       <c r="J19">
         <v>0.8</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -12498,16 +12681,19 @@
         <v>115</v>
       </c>
       <c r="G20">
-        <v>6.4399999999999999E-2</v>
+        <v>6.4390000000000003E-2</v>
       </c>
       <c r="H20">
-        <v>1.84E-2</v>
+        <v>1.8350000000000002E-2</v>
       </c>
       <c r="I20">
         <v>1.2</v>
       </c>
       <c r="J20">
         <v>0.8</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -12533,16 +12719,19 @@
         <v>115</v>
       </c>
       <c r="G21">
-        <v>0.20760000000000001</v>
+        <v>0.20762</v>
       </c>
       <c r="H21">
-        <v>5.9200000000000003E-2</v>
+        <v>5.917E-2</v>
       </c>
       <c r="I21">
         <v>1.2</v>
       </c>
       <c r="J21">
         <v>0.8</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -12568,16 +12757,19 @@
         <v>115</v>
       </c>
       <c r="G22">
-        <v>3.5700000000000003E-2</v>
+        <v>3.5720000000000002E-2</v>
       </c>
       <c r="H22">
-        <v>1.0200000000000001E-2</v>
+        <v>1.018E-2</v>
       </c>
       <c r="I22">
         <v>1.2</v>
       </c>
       <c r="J22">
         <v>0.8</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -12603,16 +12795,19 @@
         <v>115</v>
       </c>
       <c r="G23">
-        <v>0.29809999999999998</v>
+        <v>0.29807</v>
       </c>
       <c r="H23">
-        <v>8.5000000000000006E-2</v>
+        <v>8.4949999999999998E-2</v>
       </c>
       <c r="I23">
         <v>1.2</v>
       </c>
       <c r="J23">
         <v>0.8</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -12638,16 +12833,19 @@
         <v>115</v>
       </c>
       <c r="G24">
-        <v>7.4099999999999999E-2</v>
+        <v>1.025E-2</v>
       </c>
       <c r="H24">
-        <v>2.1100000000000001E-2</v>
+        <v>2.9199999999999999E-3</v>
       </c>
       <c r="I24">
         <v>1.2</v>
       </c>
       <c r="J24">
         <v>0.8</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -12667,22 +12865,25 @@
         <v>182</v>
       </c>
       <c r="E25">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F25">
         <v>115</v>
       </c>
       <c r="G25">
-        <v>2.0400000000000001E-2</v>
+        <v>6.3810000000000006E-2</v>
       </c>
       <c r="H25">
-        <v>5.7999999999999996E-3</v>
+        <v>1.8190000000000001E-2</v>
       </c>
       <c r="I25">
         <v>1.2</v>
       </c>
       <c r="J25">
         <v>0.8</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -12702,22 +12903,25 @@
         <v>183</v>
       </c>
       <c r="E26">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F26">
         <v>115</v>
       </c>
       <c r="G26">
-        <v>0.38340000000000002</v>
+        <v>2.0449999999999999E-2</v>
       </c>
       <c r="H26">
-        <v>0.10929999999999999</v>
+        <v>5.8299999999999992E-3</v>
       </c>
       <c r="I26">
         <v>1.2</v>
       </c>
       <c r="J26">
         <v>0.8</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -12737,22 +12941,25 @@
         <v>184</v>
       </c>
       <c r="E27">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F27">
         <v>115</v>
       </c>
       <c r="G27">
-        <v>0.1062</v>
+        <v>0.38335000000000002</v>
       </c>
       <c r="H27">
-        <v>3.0300000000000001E-2</v>
+        <v>0.10926</v>
       </c>
       <c r="I27">
         <v>1.2</v>
       </c>
       <c r="J27">
         <v>0.8</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -12772,22 +12979,25 @@
         <v>185</v>
       </c>
       <c r="E28">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F28">
         <v>115</v>
       </c>
       <c r="G28">
-        <v>2.0899999999999998E-2</v>
+        <v>1.0670000000000001E-2</v>
       </c>
       <c r="H28">
-        <v>5.8999999999999999E-3</v>
+        <v>3.0400000000000002E-3</v>
       </c>
       <c r="I28">
         <v>1.2</v>
       </c>
       <c r="J28">
         <v>0.8</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -12807,22 +13017,25 @@
         <v>186</v>
       </c>
       <c r="E29">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F29">
         <v>115</v>
       </c>
       <c r="G29">
-        <v>4.1500000000000002E-2</v>
+        <v>9.5479999999999995E-2</v>
       </c>
       <c r="H29">
-        <v>1.18E-2</v>
+        <v>2.7210000000000002E-2</v>
       </c>
       <c r="I29">
         <v>1.2</v>
       </c>
       <c r="J29">
         <v>0.8</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -12842,22 +13055,25 @@
         <v>187</v>
       </c>
       <c r="E30">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F30">
         <v>115</v>
       </c>
       <c r="G30">
-        <v>6.3399999999999998E-2</v>
+        <v>2.086E-2</v>
       </c>
       <c r="H30">
-        <v>1.8100000000000002E-2</v>
+        <v>5.9500000000000004E-3</v>
       </c>
       <c r="I30">
         <v>1.2</v>
       </c>
       <c r="J30">
         <v>0.8</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -12877,22 +13093,25 @@
         <v>188</v>
       </c>
       <c r="E31">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F31">
         <v>115</v>
       </c>
       <c r="G31">
-        <v>1.54E-2</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="H31">
-        <v>4.4000000000000003E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="I31">
         <v>1.2</v>
       </c>
       <c r="J31">
         <v>0.8</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -12912,22 +13131,25 @@
         <v>189</v>
       </c>
       <c r="E32">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F32">
         <v>115</v>
       </c>
       <c r="G32">
-        <v>1.8200000000000001E-2</v>
+        <v>3.1989999999999998E-2</v>
       </c>
       <c r="H32">
-        <v>5.1999999999999998E-3</v>
+        <v>9.1199999999999996E-3</v>
       </c>
       <c r="I32">
         <v>1.2</v>
       </c>
       <c r="J32">
         <v>0.8</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -12947,22 +13169,25 @@
         <v>190</v>
       </c>
       <c r="E33">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F33">
         <v>115</v>
       </c>
       <c r="G33">
-        <v>2.6599999999999999E-2</v>
+        <v>6.3380000000000006E-2</v>
       </c>
       <c r="H33">
-        <v>7.6E-3</v>
+        <v>1.806E-2</v>
       </c>
       <c r="I33">
         <v>1.2</v>
       </c>
       <c r="J33">
         <v>0.8</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -12982,22 +13207,25 @@
         <v>191</v>
       </c>
       <c r="E34">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F34">
         <v>115</v>
       </c>
       <c r="G34">
-        <v>1.3100000000000001E-2</v>
+        <v>1.5440000000000001E-2</v>
       </c>
       <c r="H34">
-        <v>3.7000000000000002E-3</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="I34">
         <v>1.2</v>
       </c>
       <c r="J34">
         <v>0.8</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -13017,22 +13245,25 @@
         <v>192</v>
       </c>
       <c r="E35">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F35">
         <v>115</v>
       </c>
       <c r="G35">
-        <v>2.8199999999999999E-2</v>
+        <v>1.822E-2</v>
       </c>
       <c r="H35">
-        <v>8.0000000000000002E-3</v>
+        <v>5.1900000000000002E-3</v>
       </c>
       <c r="I35">
         <v>1.2</v>
       </c>
       <c r="J35">
         <v>0.8</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -13052,22 +13283,25 @@
         <v>193</v>
       </c>
       <c r="E36">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F36">
         <v>115</v>
       </c>
       <c r="G36">
-        <v>4.2299999999999997E-2</v>
+        <v>4.4600000000000004E-3</v>
       </c>
       <c r="H36">
-        <v>1.21E-2</v>
+        <v>1.2700000000000001E-3</v>
       </c>
       <c r="I36">
         <v>1.2</v>
       </c>
       <c r="J36">
         <v>0.8</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -13087,22 +13321,25 @@
         <v>194</v>
       </c>
       <c r="E37">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F37">
         <v>115</v>
       </c>
       <c r="G37">
-        <v>4.7300000000000002E-2</v>
+        <v>2.2169999999999999E-2</v>
       </c>
       <c r="H37">
-        <v>1.35E-2</v>
+        <v>6.3200000000000001E-3</v>
       </c>
       <c r="I37">
         <v>1.2</v>
       </c>
       <c r="J37">
         <v>0.8</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -13122,22 +13359,25 @@
         <v>195</v>
       </c>
       <c r="E38">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F38">
         <v>115</v>
       </c>
       <c r="G38">
-        <v>3.7999999999999999E-2</v>
+        <v>7.5399999999999998E-3</v>
       </c>
       <c r="H38">
-        <v>1.0800000000000001E-2</v>
+        <v>2.15E-3</v>
       </c>
       <c r="I38">
         <v>1.2</v>
       </c>
       <c r="J38">
         <v>0.8</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -13157,22 +13397,25 @@
         <v>196</v>
       </c>
       <c r="E39">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F39">
         <v>115</v>
       </c>
       <c r="G39">
-        <v>0.20549999999999999</v>
+        <v>5.5400000000000007E-3</v>
       </c>
       <c r="H39">
-        <v>5.8600000000000013E-2</v>
+        <v>1.58E-3</v>
       </c>
       <c r="I39">
         <v>1.2</v>
       </c>
       <c r="J39">
         <v>0.8</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -13192,22 +13435,25 @@
         <v>197</v>
       </c>
       <c r="E40">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F40">
         <v>115</v>
       </c>
       <c r="G40">
-        <v>0.21410000000000001</v>
+        <v>2.819E-2</v>
       </c>
       <c r="H40">
-        <v>6.0999999999999999E-2</v>
+        <v>8.0300000000000007E-3</v>
       </c>
       <c r="I40">
         <v>1.2</v>
       </c>
       <c r="J40">
         <v>0.8</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
       </c>
       <c r="L40">
         <v>1</v>
@@ -13227,22 +13473,25 @@
         <v>198</v>
       </c>
       <c r="E41">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F41">
         <v>115</v>
       </c>
       <c r="G41">
-        <v>7.980000000000001E-2</v>
+        <v>9.9799999999999993E-3</v>
       </c>
       <c r="H41">
-        <v>2.2700000000000001E-2</v>
+        <v>2.8400000000000001E-3</v>
       </c>
       <c r="I41">
         <v>1.2</v>
       </c>
       <c r="J41">
         <v>0.8</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
       </c>
       <c r="L41">
         <v>1</v>
@@ -13262,22 +13511,25 @@
         <v>199</v>
       </c>
       <c r="E42">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F42">
         <v>115</v>
       </c>
       <c r="G42">
-        <v>0.18759999999999999</v>
+        <v>1.391E-2</v>
       </c>
       <c r="H42">
-        <v>5.3499999999999999E-2</v>
+        <v>3.96E-3</v>
       </c>
       <c r="I42">
         <v>1.2</v>
       </c>
       <c r="J42">
         <v>0.8</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
       </c>
       <c r="L42">
         <v>1</v>
@@ -13297,22 +13549,25 @@
         <v>200</v>
       </c>
       <c r="E43">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F43">
         <v>115</v>
       </c>
       <c r="G43">
-        <v>3.5999999999999997E-2</v>
+        <v>1.8419999999999999E-2</v>
       </c>
       <c r="H43">
-        <v>1.03E-2</v>
+        <v>5.2500000000000003E-3</v>
       </c>
       <c r="I43">
         <v>1.2</v>
       </c>
       <c r="J43">
         <v>0.8</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
       </c>
       <c r="L43">
         <v>1</v>
@@ -13332,22 +13587,25 @@
         <v>201</v>
       </c>
       <c r="E44">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="F44">
         <v>115</v>
       </c>
       <c r="G44">
-        <v>1.4800000000000001E-2</v>
+        <v>9.7099999999999999E-3</v>
       </c>
       <c r="H44">
-        <v>4.1999999999999997E-3</v>
+        <v>2.7699999999999999E-3</v>
       </c>
       <c r="I44">
         <v>1.2</v>
       </c>
       <c r="J44">
         <v>0.8</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
       </c>
       <c r="L44">
         <v>1</v>
@@ -13367,22 +13625,25 @@
         <v>202</v>
       </c>
       <c r="E45">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="F45">
         <v>115</v>
       </c>
       <c r="G45">
-        <v>7.5999999999999998E-2</v>
+        <v>3.7599999999999988E-2</v>
       </c>
       <c r="H45">
-        <v>2.1700000000000001E-2</v>
+        <v>1.072E-2</v>
       </c>
       <c r="I45">
         <v>1.2</v>
       </c>
       <c r="J45">
         <v>0.8</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
       </c>
       <c r="L45">
         <v>1</v>
@@ -13402,22 +13663,25 @@
         <v>203</v>
       </c>
       <c r="E46">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="F46">
         <v>115</v>
       </c>
       <c r="G46">
-        <v>3.1399999999999997E-2</v>
+        <v>2.3429999999999999E-2</v>
       </c>
       <c r="H46">
-        <v>8.8999999999999999E-3</v>
+        <v>6.6800000000000002E-3</v>
       </c>
       <c r="I46">
         <v>1.2</v>
       </c>
       <c r="J46">
         <v>0.8</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
       </c>
       <c r="L46">
         <v>1</v>
@@ -13437,22 +13701,25 @@
         <v>204</v>
       </c>
       <c r="E47">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F47">
         <v>115</v>
       </c>
       <c r="G47">
-        <v>3.7499999999999999E-2</v>
+        <v>1.453E-2</v>
       </c>
       <c r="H47">
-        <v>1.0699999999999999E-2</v>
+        <v>4.1399999999999996E-3</v>
       </c>
       <c r="I47">
         <v>1.2</v>
       </c>
       <c r="J47">
         <v>0.8</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
       </c>
       <c r="L47">
         <v>1</v>
@@ -13472,22 +13739,25 @@
         <v>205</v>
       </c>
       <c r="E48">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="F48">
         <v>115</v>
       </c>
       <c r="G48">
-        <v>4.8300000000000003E-2</v>
+        <v>0.20555000000000001</v>
       </c>
       <c r="H48">
-        <v>1.38E-2</v>
+        <v>5.8579999999999993E-2</v>
       </c>
       <c r="I48">
         <v>1.2</v>
       </c>
       <c r="J48">
         <v>0.8</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
       </c>
       <c r="L48">
         <v>1</v>
@@ -13507,22 +13777,25 @@
         <v>206</v>
       </c>
       <c r="E49">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F49">
         <v>115</v>
       </c>
       <c r="G49">
-        <v>8.2500000000000004E-2</v>
+        <v>8.5440000000000002E-2</v>
       </c>
       <c r="H49">
-        <v>2.35E-2</v>
+        <v>2.435E-2</v>
       </c>
       <c r="I49">
         <v>1.2</v>
       </c>
       <c r="J49">
         <v>0.8</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
       </c>
       <c r="L49">
         <v>1</v>
@@ -13542,22 +13815,25 @@
         <v>207</v>
       </c>
       <c r="E50">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="F50">
         <v>115</v>
       </c>
       <c r="G50">
-        <v>0.49340000000000012</v>
+        <v>0.12862000000000001</v>
       </c>
       <c r="H50">
-        <v>0.1406</v>
+        <v>3.6659999999999998E-2</v>
       </c>
       <c r="I50">
         <v>1.2</v>
       </c>
       <c r="J50">
         <v>0.8</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
       </c>
       <c r="L50">
         <v>1</v>
@@ -13577,22 +13853,25 @@
         <v>208</v>
       </c>
       <c r="E51">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="F51">
         <v>115</v>
       </c>
       <c r="G51">
-        <v>0.62850000000000006</v>
+        <v>3.322E-2</v>
       </c>
       <c r="H51">
-        <v>0.17910000000000001</v>
+        <v>9.4699999999999993E-3</v>
       </c>
       <c r="I51">
         <v>1.2</v>
       </c>
       <c r="J51">
         <v>0.8</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
       </c>
       <c r="L51">
         <v>1</v>
@@ -13612,22 +13891,25 @@
         <v>209</v>
       </c>
       <c r="E52">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="F52">
         <v>115</v>
       </c>
       <c r="G52">
-        <v>3.0599999999999999E-2</v>
+        <v>2.1989999999999999E-2</v>
       </c>
       <c r="H52">
-        <v>8.6999999999999994E-3</v>
+        <v>6.2700000000000004E-3</v>
       </c>
       <c r="I52">
         <v>1.2</v>
       </c>
       <c r="J52">
         <v>0.8</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
       </c>
       <c r="L52">
         <v>1</v>
@@ -13647,22 +13929,25 @@
         <v>210</v>
       </c>
       <c r="E53">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="F53">
         <v>115</v>
       </c>
       <c r="G53">
-        <v>0.03</v>
+        <v>2.461E-2</v>
       </c>
       <c r="H53">
-        <v>8.5000000000000006E-3</v>
+        <v>7.0099999999999997E-3</v>
       </c>
       <c r="I53">
         <v>1.2</v>
       </c>
       <c r="J53">
         <v>0.8</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
       </c>
       <c r="L53">
         <v>1</v>
@@ -13682,22 +13967,25 @@
         <v>211</v>
       </c>
       <c r="E54">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="F54">
         <v>115</v>
       </c>
       <c r="G54">
-        <v>2.9600000000000001E-2</v>
+        <v>0.18761</v>
       </c>
       <c r="H54">
-        <v>8.3999999999999995E-3</v>
+        <v>5.3469999999999997E-2</v>
       </c>
       <c r="I54">
         <v>1.2</v>
       </c>
       <c r="J54">
         <v>0.8</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
       </c>
       <c r="L54">
         <v>1</v>
@@ -13717,22 +14005,25 @@
         <v>212</v>
       </c>
       <c r="E55">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="F55">
         <v>115</v>
       </c>
       <c r="G55">
-        <v>7.3300000000000004E-2</v>
+        <v>3.5979999999999998E-2</v>
       </c>
       <c r="H55">
-        <v>2.0899999999999998E-2</v>
+        <v>1.026E-2</v>
       </c>
       <c r="I55">
         <v>1.2</v>
       </c>
       <c r="J55">
         <v>0.8</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
       </c>
       <c r="L55">
         <v>1</v>
@@ -13752,22 +14043,25 @@
         <v>213</v>
       </c>
       <c r="E56">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="F56">
         <v>115</v>
       </c>
       <c r="G56">
-        <v>0.1217</v>
+        <v>5.9199999999999999E-3</v>
       </c>
       <c r="H56">
-        <v>3.4700000000000002E-2</v>
+        <v>1.6900000000000001E-3</v>
       </c>
       <c r="I56">
         <v>1.2</v>
       </c>
       <c r="J56">
         <v>0.8</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
       </c>
       <c r="L56">
         <v>1</v>
@@ -13787,22 +14081,25 @@
         <v>214</v>
       </c>
       <c r="E57">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F57">
         <v>115</v>
       </c>
       <c r="G57">
-        <v>0.37390000000000001</v>
+        <v>8.8400000000000006E-3</v>
       </c>
       <c r="H57">
-        <v>0.1066</v>
+        <v>2.5200000000000001E-3</v>
       </c>
       <c r="I57">
         <v>1.2</v>
       </c>
       <c r="J57">
         <v>0.8</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
       </c>
       <c r="L57">
         <v>1</v>
@@ -13822,22 +14119,25 @@
         <v>215</v>
       </c>
       <c r="E58">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="F58">
         <v>115</v>
       </c>
       <c r="G58">
-        <v>5.1999999999999998E-3</v>
+        <v>5.4930000000000007E-2</v>
       </c>
       <c r="H58">
-        <v>1.5E-3</v>
+        <v>1.566E-2</v>
       </c>
       <c r="I58">
         <v>1.2</v>
       </c>
       <c r="J58">
         <v>0.8</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
       </c>
       <c r="L58">
         <v>1</v>
@@ -13857,22 +14157,25 @@
         <v>216</v>
       </c>
       <c r="E59">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="F59">
         <v>115</v>
       </c>
       <c r="G59">
-        <v>2.06E-2</v>
+        <v>2.1069999999999998E-2</v>
       </c>
       <c r="H59">
-        <v>5.8999999999999999E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="I59">
         <v>1.2</v>
       </c>
       <c r="J59">
         <v>0.8</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
       </c>
       <c r="L59">
         <v>1</v>
@@ -13892,22 +14195,25 @@
         <v>217</v>
       </c>
       <c r="E60">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="F60">
         <v>115</v>
       </c>
       <c r="G60">
-        <v>0.52560000000000007</v>
+        <v>8.9499999999999996E-3</v>
       </c>
       <c r="H60">
-        <v>0.14979999999999999</v>
+        <v>2.5500000000000002E-3</v>
       </c>
       <c r="I60">
         <v>1.2</v>
       </c>
       <c r="J60">
         <v>0.8</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
       </c>
       <c r="L60">
         <v>1</v>
@@ -13927,22 +14233,25 @@
         <v>218</v>
       </c>
       <c r="E61">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="F61">
         <v>115</v>
       </c>
       <c r="G61">
-        <v>9.4200000000000006E-2</v>
+        <v>2.2409999999999999E-2</v>
       </c>
       <c r="H61">
-        <v>2.6800000000000001E-2</v>
+        <v>6.3899999999999998E-3</v>
       </c>
       <c r="I61">
         <v>1.2</v>
       </c>
       <c r="J61">
         <v>0.8</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
       </c>
       <c r="L61">
         <v>1</v>
@@ -13962,22 +14271,25 @@
         <v>219</v>
       </c>
       <c r="E62">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="F62">
         <v>115</v>
       </c>
       <c r="G62">
-        <v>5.16E-2</v>
+        <v>3.7519999999999998E-2</v>
       </c>
       <c r="H62">
-        <v>1.47E-2</v>
+        <v>1.069E-2</v>
       </c>
       <c r="I62">
         <v>1.2</v>
       </c>
       <c r="J62">
         <v>0.8</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
       </c>
       <c r="L62">
         <v>1</v>
@@ -13997,22 +14309,25 @@
         <v>220</v>
       </c>
       <c r="E63">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="F63">
         <v>115</v>
       </c>
       <c r="G63">
-        <v>0.1086</v>
+        <v>4.8339999999999987E-2</v>
       </c>
       <c r="H63">
-        <v>3.09E-2</v>
+        <v>1.3780000000000001E-2</v>
       </c>
       <c r="I63">
         <v>1.2</v>
       </c>
       <c r="J63">
         <v>0.8</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
       </c>
       <c r="L63">
         <v>1</v>
@@ -14032,22 +14347,25 @@
         <v>221</v>
       </c>
       <c r="E64">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="F64">
         <v>115</v>
       </c>
       <c r="G64">
-        <v>8.8200000000000001E-2</v>
+        <v>8.2490000000000008E-2</v>
       </c>
       <c r="H64">
-        <v>2.5100000000000001E-2</v>
+        <v>2.351E-2</v>
       </c>
       <c r="I64">
         <v>1.2</v>
       </c>
       <c r="J64">
         <v>0.8</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
       </c>
       <c r="L64">
         <v>1</v>
@@ -14067,22 +14385,25 @@
         <v>222</v>
       </c>
       <c r="E65">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="F65">
         <v>115</v>
       </c>
       <c r="G65">
-        <v>0.34079999999999999</v>
+        <v>0.49340000000000012</v>
       </c>
       <c r="H65">
-        <v>9.7100000000000006E-2</v>
+        <v>0.14061999999999999</v>
       </c>
       <c r="I65">
         <v>1.2</v>
       </c>
       <c r="J65">
         <v>0.8</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
       </c>
       <c r="L65">
         <v>1</v>
@@ -14102,22 +14423,25 @@
         <v>223</v>
       </c>
       <c r="E66">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="F66">
         <v>115</v>
       </c>
       <c r="G66">
-        <v>3.9399999999999998E-2</v>
+        <v>8.5760000000000003E-2</v>
       </c>
       <c r="H66">
-        <v>1.12E-2</v>
+        <v>2.444E-2</v>
       </c>
       <c r="I66">
         <v>1.2</v>
       </c>
       <c r="J66">
         <v>0.8</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
       </c>
       <c r="L66">
         <v>1</v>
@@ -14137,22 +14461,25 @@
         <v>224</v>
       </c>
       <c r="E67">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="F67">
         <v>115</v>
       </c>
       <c r="G67">
-        <v>0.17549999999999999</v>
+        <v>2.283E-2</v>
       </c>
       <c r="H67">
-        <v>0.05</v>
+        <v>6.5100000000000002E-3</v>
       </c>
       <c r="I67">
         <v>1.2</v>
       </c>
       <c r="J67">
         <v>0.8</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
       </c>
       <c r="L67">
         <v>1</v>
@@ -14172,22 +14499,25 @@
         <v>225</v>
       </c>
       <c r="E68">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="F68">
         <v>115</v>
       </c>
       <c r="G68">
-        <v>1.7999999999999999E-2</v>
+        <v>2.2100000000000002E-2</v>
       </c>
       <c r="H68">
-        <v>5.1000000000000004E-3</v>
+        <v>6.3E-3</v>
       </c>
       <c r="I68">
         <v>1.2</v>
       </c>
       <c r="J68">
         <v>0.8</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
       </c>
       <c r="L68">
         <v>1</v>
@@ -14207,22 +14537,25 @@
         <v>226</v>
       </c>
       <c r="E69">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="F69">
         <v>115</v>
       </c>
       <c r="G69">
-        <v>0.15440000000000001</v>
+        <v>0.49775999999999998</v>
       </c>
       <c r="H69">
-        <v>4.3999999999999997E-2</v>
+        <v>0.14186000000000001</v>
       </c>
       <c r="I69">
         <v>1.2</v>
       </c>
       <c r="J69">
         <v>0.8</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
       </c>
       <c r="L69">
         <v>1</v>
@@ -14242,22 +14575,25 @@
         <v>227</v>
       </c>
       <c r="E70">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="F70">
         <v>115</v>
       </c>
       <c r="G70">
-        <v>0.77239999999999998</v>
+        <v>2.102E-2</v>
       </c>
       <c r="H70">
-        <v>0.22009999999999999</v>
+        <v>5.9899999999999997E-3</v>
       </c>
       <c r="I70">
         <v>1.2</v>
       </c>
       <c r="J70">
         <v>0.8</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
       </c>
       <c r="L70">
         <v>1</v>
@@ -14277,22 +14613,25 @@
         <v>228</v>
       </c>
       <c r="E71">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="F71">
         <v>115</v>
       </c>
       <c r="G71">
-        <v>4.3999999999999997E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="H71">
-        <v>1.2500000000000001E-2</v>
+        <v>2.7399999999999998E-3</v>
       </c>
       <c r="I71">
         <v>1.2</v>
       </c>
       <c r="J71">
         <v>0.8</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
       </c>
       <c r="L71">
         <v>1</v>
@@ -14312,22 +14651,25 @@
         <v>229</v>
       </c>
       <c r="E72">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="F72">
         <v>115</v>
       </c>
       <c r="G72">
-        <v>0.30249999999999999</v>
+        <v>1.4800000000000001E-2</v>
       </c>
       <c r="H72">
-        <v>8.6199999999999999E-2</v>
+        <v>4.2199999999999998E-3</v>
       </c>
       <c r="I72">
         <v>1.2</v>
       </c>
       <c r="J72">
         <v>0.8</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
       </c>
       <c r="L72">
         <v>1</v>
@@ -14347,22 +14689,25 @@
         <v>230</v>
       </c>
       <c r="E73">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="F73">
         <v>115</v>
       </c>
       <c r="G73">
-        <v>0.26960000000000001</v>
+        <v>7.3000000000000001E-3</v>
       </c>
       <c r="H73">
-        <v>7.6799999999999993E-2</v>
+        <v>2.0799999999999998E-3</v>
       </c>
       <c r="I73">
         <v>1.2</v>
       </c>
       <c r="J73">
         <v>0.8</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
       </c>
       <c r="L73">
         <v>1</v>
@@ -14382,22 +14727,25 @@
         <v>231</v>
       </c>
       <c r="E74">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="F74">
         <v>115</v>
       </c>
       <c r="G74">
-        <v>1.1599999999999999E-2</v>
+        <v>7.8900000000000012E-3</v>
       </c>
       <c r="H74">
-        <v>3.3E-3</v>
+        <v>2.2499999999999998E-3</v>
       </c>
       <c r="I74">
         <v>1.2</v>
       </c>
       <c r="J74">
         <v>0.8</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
       </c>
       <c r="L74">
         <v>1</v>
@@ -14417,22 +14765,25 @@
         <v>232</v>
       </c>
       <c r="E75">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="F75">
         <v>115</v>
       </c>
       <c r="G75">
-        <v>2.0899999999999998E-2</v>
+        <v>2.9569999999999999E-2</v>
       </c>
       <c r="H75">
-        <v>6.0000000000000001E-3</v>
+        <v>8.43E-3</v>
       </c>
       <c r="I75">
         <v>1.2</v>
       </c>
       <c r="J75">
         <v>0.8</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
       </c>
       <c r="L75">
         <v>1</v>
@@ -14452,22 +14803,25 @@
         <v>233</v>
       </c>
       <c r="E76">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="F76">
         <v>115</v>
       </c>
       <c r="G76">
-        <v>6.8400000000000002E-2</v>
+        <v>8.4200000000000004E-3</v>
       </c>
       <c r="H76">
-        <v>1.95E-2</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="I76">
         <v>1.2</v>
       </c>
       <c r="J76">
         <v>0.8</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
       </c>
       <c r="L76">
         <v>1</v>
@@ -14487,22 +14841,25 @@
         <v>234</v>
       </c>
       <c r="E77">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="F77">
         <v>115</v>
       </c>
       <c r="G77">
-        <v>8.2100000000000006E-2</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="H77">
-        <v>2.3400000000000001E-2</v>
+        <v>2.0500000000000002E-3</v>
       </c>
       <c r="I77">
         <v>1.2</v>
       </c>
       <c r="J77">
         <v>0.8</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
       </c>
       <c r="L77">
         <v>1</v>
@@ -14522,22 +14879,25 @@
         <v>235</v>
       </c>
       <c r="E78">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="F78">
         <v>115</v>
       </c>
       <c r="G78">
-        <v>1.4200000000000001E-2</v>
+        <v>5.7670000000000013E-2</v>
       </c>
       <c r="H78">
-        <v>4.0999999999999986E-3</v>
+        <v>1.644E-2</v>
       </c>
       <c r="I78">
         <v>1.2</v>
       </c>
       <c r="J78">
         <v>0.8</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
       </c>
       <c r="L78">
         <v>1</v>
@@ -14557,22 +14917,25 @@
         <v>236</v>
       </c>
       <c r="E79">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="F79">
         <v>115</v>
       </c>
       <c r="G79">
-        <v>0.37259999999999999</v>
+        <v>0.12166</v>
       </c>
       <c r="H79">
-        <v>0.1062</v>
+        <v>3.4669999999999999E-2</v>
       </c>
       <c r="I79">
         <v>1.2</v>
       </c>
       <c r="J79">
         <v>0.8</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
       </c>
       <c r="L79">
         <v>1</v>
@@ -14592,22 +14955,25 @@
         <v>237</v>
       </c>
       <c r="E80">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="F80">
         <v>115</v>
       </c>
       <c r="G80">
-        <v>0.26779999999999998</v>
+        <v>0.37390000000000001</v>
       </c>
       <c r="H80">
-        <v>7.6299999999999993E-2</v>
+        <v>0.10656</v>
       </c>
       <c r="I80">
         <v>1.2</v>
       </c>
       <c r="J80">
         <v>0.8</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
       </c>
       <c r="L80">
         <v>1</v>
@@ -14627,22 +14993,25 @@
         <v>238</v>
       </c>
       <c r="E81">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="F81">
         <v>115</v>
       </c>
       <c r="G81">
-        <v>9.0500000000000011E-2</v>
+        <v>5.1900000000000002E-3</v>
       </c>
       <c r="H81">
-        <v>2.58E-2</v>
+        <v>1.48E-3</v>
       </c>
       <c r="I81">
         <v>1.2</v>
       </c>
       <c r="J81">
         <v>0.8</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
       </c>
       <c r="L81">
         <v>1</v>
@@ -14662,22 +15031,25 @@
         <v>239</v>
       </c>
       <c r="E82">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="F82">
         <v>115</v>
       </c>
       <c r="G82">
-        <v>0.1754</v>
+        <v>2.0580000000000001E-2</v>
       </c>
       <c r="H82">
-        <v>0.05</v>
+        <v>5.8699999999999994E-3</v>
       </c>
       <c r="I82">
         <v>1.2</v>
       </c>
       <c r="J82">
         <v>0.8</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
       </c>
       <c r="L82">
         <v>1</v>
@@ -14697,22 +15069,25 @@
         <v>240</v>
       </c>
       <c r="E83">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="F83">
         <v>115</v>
       </c>
       <c r="G83">
-        <v>0.32019999999999998</v>
+        <v>0.52560000000000007</v>
       </c>
       <c r="H83">
-        <v>9.1300000000000006E-2</v>
+        <v>0.14979999999999999</v>
       </c>
       <c r="I83">
         <v>1.2</v>
       </c>
       <c r="J83">
         <v>0.8</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
       </c>
       <c r="L83">
         <v>1</v>
@@ -14732,22 +15107,25 @@
         <v>241</v>
       </c>
       <c r="E84">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="F84">
         <v>115</v>
       </c>
       <c r="G84">
-        <v>0.14760000000000001</v>
+        <v>5.3E-3</v>
       </c>
       <c r="H84">
-        <v>4.2099999999999999E-2</v>
+        <v>1.5100000000000001E-3</v>
       </c>
       <c r="I84">
         <v>1.2</v>
       </c>
       <c r="J84">
         <v>0.8</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
       </c>
       <c r="L84">
         <v>1</v>
@@ -14767,22 +15145,25 @@
         <v>242</v>
       </c>
       <c r="E85">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="F85">
         <v>115</v>
       </c>
       <c r="G85">
-        <v>8.9700000000000002E-2</v>
+        <v>4.4940000000000001E-2</v>
       </c>
       <c r="H85">
-        <v>2.5600000000000001E-2</v>
+        <v>1.281E-2</v>
       </c>
       <c r="I85">
         <v>1.2</v>
       </c>
       <c r="J85">
         <v>0.8</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
       </c>
       <c r="L85">
         <v>1</v>
@@ -14802,22 +15183,25 @@
         <v>243</v>
       </c>
       <c r="E86">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="F86">
         <v>115</v>
       </c>
       <c r="G86">
-        <v>1.3899999999999999E-2</v>
+        <v>4.3950000000000003E-2</v>
       </c>
       <c r="H86">
-        <v>4.0000000000000001E-3</v>
+        <v>1.2529999999999999E-2</v>
       </c>
       <c r="I86">
         <v>1.2</v>
       </c>
       <c r="J86">
         <v>0.8</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
       </c>
       <c r="L86">
         <v>1</v>
@@ -14837,22 +15221,25 @@
         <v>244</v>
       </c>
       <c r="E87">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="F87">
         <v>115</v>
       </c>
       <c r="G87">
-        <v>1.4500000000000001E-2</v>
+        <v>1.5779999999999999E-2</v>
       </c>
       <c r="H87">
-        <v>4.0999999999999986E-3</v>
+        <v>4.5000000000000014E-3</v>
       </c>
       <c r="I87">
         <v>1.2</v>
       </c>
       <c r="J87">
         <v>0.8</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
       </c>
       <c r="L87">
         <v>1</v>
@@ -14872,22 +15259,25 @@
         <v>245</v>
       </c>
       <c r="E88">
-        <v>163</v>
+        <v>109</v>
       </c>
       <c r="F88">
         <v>115</v>
       </c>
       <c r="G88">
-        <v>0.45800000000000002</v>
+        <v>3.5790000000000002E-2</v>
       </c>
       <c r="H88">
-        <v>0.1305</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="I88">
         <v>1.2</v>
       </c>
       <c r="J88">
         <v>0.8</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
       </c>
       <c r="L88">
         <v>1</v>
@@ -14907,22 +15297,25 @@
         <v>246</v>
       </c>
       <c r="E89">
-        <v>171</v>
+        <v>110</v>
       </c>
       <c r="F89">
         <v>115</v>
       </c>
       <c r="G89">
-        <v>7.9399999999999998E-2</v>
+        <v>0.10858</v>
       </c>
       <c r="H89">
-        <v>2.2599999999999999E-2</v>
+        <v>3.0949999999999998E-2</v>
       </c>
       <c r="I89">
         <v>1.2</v>
       </c>
       <c r="J89">
         <v>0.8</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
       </c>
       <c r="L89">
         <v>1</v>
@@ -14942,22 +15335,25 @@
         <v>247</v>
       </c>
       <c r="E90">
-        <v>172</v>
+        <v>111</v>
       </c>
       <c r="F90">
         <v>115</v>
       </c>
       <c r="G90">
-        <v>5.3800000000000001E-2</v>
+        <v>8.8149999999999992E-2</v>
       </c>
       <c r="H90">
-        <v>1.5299999999999999E-2</v>
+        <v>2.512E-2</v>
       </c>
       <c r="I90">
         <v>1.2</v>
       </c>
       <c r="J90">
         <v>0.8</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
       </c>
       <c r="L90">
         <v>1</v>
@@ -14977,22 +15373,25 @@
         <v>248</v>
       </c>
       <c r="E91">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="F91">
         <v>115</v>
       </c>
       <c r="G91">
-        <v>8.7100000000000011E-2</v>
+        <v>0.34078999999999998</v>
       </c>
       <c r="H91">
-        <v>2.4799999999999999E-2</v>
+        <v>9.7119999999999998E-2</v>
       </c>
       <c r="I91">
         <v>1.2</v>
       </c>
       <c r="J91">
         <v>0.8</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
       </c>
       <c r="L91">
         <v>1</v>
@@ -15012,22 +15411,25 @@
         <v>249</v>
       </c>
       <c r="E92">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="F92">
         <v>115</v>
       </c>
       <c r="G92">
-        <v>2.7699999999999999E-2</v>
+        <v>3.9370000000000002E-2</v>
       </c>
       <c r="H92">
-        <v>7.9000000000000008E-3</v>
+        <v>1.1220000000000001E-2</v>
       </c>
       <c r="I92">
         <v>1.2</v>
       </c>
       <c r="J92">
         <v>0.8</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
       </c>
       <c r="L92">
         <v>1</v>
@@ -15047,22 +15449,25 @@
         <v>250</v>
       </c>
       <c r="E93">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="F93">
         <v>115</v>
       </c>
       <c r="G93">
-        <v>7.3099999999999998E-2</v>
+        <v>8.7100000000000007E-3</v>
       </c>
       <c r="H93">
-        <v>2.0799999999999999E-2</v>
+        <v>2.48E-3</v>
       </c>
       <c r="I93">
         <v>1.2</v>
       </c>
       <c r="J93">
         <v>0.8</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
       </c>
       <c r="L93">
         <v>1</v>
@@ -15082,22 +15487,25 @@
         <v>251</v>
       </c>
       <c r="E94">
-        <v>176</v>
+        <v>119</v>
       </c>
       <c r="F94">
         <v>115</v>
       </c>
       <c r="G94">
-        <v>0.19009999999999999</v>
+        <v>0.16683000000000001</v>
       </c>
       <c r="H94">
-        <v>5.4199999999999998E-2</v>
+        <v>4.7550000000000002E-2</v>
       </c>
       <c r="I94">
         <v>1.2</v>
       </c>
       <c r="J94">
         <v>0.8</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
       </c>
       <c r="L94">
         <v>1</v>
@@ -15117,22 +15525,25 @@
         <v>252</v>
       </c>
       <c r="E95">
-        <v>177</v>
+        <v>120</v>
       </c>
       <c r="F95">
         <v>115</v>
       </c>
       <c r="G95">
-        <v>0.1129</v>
+        <v>1.7979999999999999E-2</v>
       </c>
       <c r="H95">
-        <v>3.2199999999999999E-2</v>
+        <v>5.1200000000000004E-3</v>
       </c>
       <c r="I95">
         <v>1.2</v>
       </c>
       <c r="J95">
         <v>0.8</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
       </c>
       <c r="L95">
         <v>1</v>
@@ -15152,22 +15563,25 @@
         <v>253</v>
       </c>
       <c r="E96">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="F96">
         <v>115</v>
       </c>
       <c r="G96">
-        <v>0.2361</v>
+        <v>6.1399999999999996E-3</v>
       </c>
       <c r="H96">
-        <v>6.7299999999999999E-2</v>
+        <v>1.75E-3</v>
       </c>
       <c r="I96">
         <v>1.2</v>
       </c>
       <c r="J96">
         <v>0.8</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
       </c>
       <c r="L96">
         <v>1</v>
@@ -15187,22 +15601,25 @@
         <v>254</v>
       </c>
       <c r="E97">
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="F97">
         <v>115</v>
       </c>
       <c r="G97">
-        <v>7.7399999999999997E-2</v>
+        <v>1.9400000000000001E-3</v>
       </c>
       <c r="H97">
-        <v>2.2100000000000002E-2</v>
+        <v>5.5000000000000003E-4</v>
       </c>
       <c r="I97">
         <v>1.2</v>
       </c>
       <c r="J97">
         <v>0.8</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
       </c>
       <c r="L97">
         <v>1</v>
@@ -15222,22 +15639,25 @@
         <v>255</v>
       </c>
       <c r="E98">
-        <v>181</v>
+        <v>122</v>
       </c>
       <c r="F98">
         <v>115</v>
       </c>
       <c r="G98">
-        <v>0.47979999999999989</v>
+        <v>0.14630000000000001</v>
       </c>
       <c r="H98">
-        <v>0.13669999999999999</v>
+        <v>4.1689999999999998E-2</v>
       </c>
       <c r="I98">
         <v>1.2</v>
       </c>
       <c r="J98">
         <v>0.8</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
       </c>
       <c r="L98">
         <v>1</v>
@@ -15257,22 +15677,25 @@
         <v>256</v>
       </c>
       <c r="E99">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="F99">
         <v>115</v>
       </c>
       <c r="G99">
-        <v>0.1069</v>
+        <v>0.77244000000000002</v>
       </c>
       <c r="H99">
-        <v>3.0499999999999999E-2</v>
+        <v>0.22015000000000001</v>
       </c>
       <c r="I99">
         <v>1.2</v>
       </c>
       <c r="J99">
         <v>0.8</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
       </c>
       <c r="L99">
         <v>1</v>
@@ -15292,22 +15715,25 @@
         <v>257</v>
       </c>
       <c r="E100">
-        <v>185</v>
+        <v>130</v>
       </c>
       <c r="F100">
         <v>115</v>
       </c>
       <c r="G100">
-        <v>0.1079</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="H100">
-        <v>3.0700000000000002E-2</v>
+        <v>1.2540000000000001E-2</v>
       </c>
       <c r="I100">
         <v>1.2</v>
       </c>
       <c r="J100">
         <v>0.8</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
       </c>
       <c r="L100">
         <v>1</v>
@@ -15327,22 +15753,25 @@
         <v>258</v>
       </c>
       <c r="E101">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="F101">
         <v>115</v>
       </c>
       <c r="G101">
-        <v>2.1000000000000001E-2</v>
+        <v>0.30253999999999998</v>
       </c>
       <c r="H101">
-        <v>6.0000000000000001E-3</v>
+        <v>8.6220000000000005E-2</v>
       </c>
       <c r="I101">
         <v>1.2</v>
       </c>
       <c r="J101">
         <v>0.8</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
       </c>
       <c r="L101">
         <v>1</v>
@@ -15362,22 +15791,25 @@
         <v>259</v>
       </c>
       <c r="E102">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="F102">
         <v>115</v>
       </c>
       <c r="G102">
-        <v>0.16789999999999999</v>
+        <v>1.516E-2</v>
       </c>
       <c r="H102">
-        <v>4.7800000000000002E-2</v>
+        <v>4.3200000000000001E-3</v>
       </c>
       <c r="I102">
         <v>1.2</v>
       </c>
       <c r="J102">
         <v>0.8</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
       </c>
       <c r="L102">
         <v>1</v>
@@ -15397,22 +15829,25 @@
         <v>260</v>
       </c>
       <c r="E103">
-        <v>191</v>
+        <v>132</v>
       </c>
       <c r="F103">
         <v>115</v>
       </c>
       <c r="G103">
-        <v>7.2300000000000003E-2</v>
+        <v>1.5429999999999999E-2</v>
       </c>
       <c r="H103">
-        <v>2.06E-2</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="I103">
         <v>1.2</v>
       </c>
       <c r="J103">
         <v>0.8</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
       </c>
       <c r="L103">
         <v>1</v>
@@ -15432,22 +15867,25 @@
         <v>261</v>
       </c>
       <c r="E104">
-        <v>192</v>
+        <v>132</v>
       </c>
       <c r="F104">
         <v>115</v>
       </c>
       <c r="G104">
-        <v>0.52739999999999998</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="H104">
-        <v>0.15029999999999999</v>
+        <v>6.812E-2</v>
       </c>
       <c r="I104">
         <v>1.2</v>
       </c>
       <c r="J104">
         <v>0.8</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
       </c>
       <c r="L104">
         <v>1</v>
@@ -15467,22 +15905,25 @@
         <v>262</v>
       </c>
       <c r="E105">
-        <v>193</v>
+        <v>137</v>
       </c>
       <c r="F105">
         <v>115</v>
       </c>
       <c r="G105">
-        <v>0.21990000000000001</v>
+        <v>1.1599999999999999E-2</v>
       </c>
       <c r="H105">
-        <v>6.2699999999999992E-2</v>
+        <v>3.31E-3</v>
       </c>
       <c r="I105">
         <v>1.2</v>
       </c>
       <c r="J105">
         <v>0.8</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
       </c>
       <c r="L105">
         <v>1</v>
@@ -15502,22 +15943,25 @@
         <v>263</v>
       </c>
       <c r="E106">
-        <v>194</v>
+        <v>138</v>
       </c>
       <c r="F106">
         <v>115</v>
       </c>
       <c r="G106">
-        <v>0.37569999999999998</v>
+        <v>2.0930000000000001E-2</v>
       </c>
       <c r="H106">
-        <v>0.1071</v>
+        <v>5.96E-3</v>
       </c>
       <c r="I106">
         <v>1.2</v>
       </c>
       <c r="J106">
         <v>0.8</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
       </c>
       <c r="L106">
         <v>1</v>
@@ -15537,22 +15981,25 @@
         <v>264</v>
       </c>
       <c r="E107">
-        <v>198</v>
+        <v>139</v>
       </c>
       <c r="F107">
         <v>115</v>
       </c>
       <c r="G107">
-        <v>5.3699999999999998E-2</v>
+        <v>5.6809999999999999E-2</v>
       </c>
       <c r="H107">
-        <v>1.5299999999999999E-2</v>
+        <v>1.619E-2</v>
       </c>
       <c r="I107">
         <v>1.2</v>
       </c>
       <c r="J107">
         <v>0.8</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
       </c>
       <c r="L107">
         <v>1</v>
@@ -15572,22 +16019,25 @@
         <v>265</v>
       </c>
       <c r="E108">
-        <v>199</v>
+        <v>139</v>
       </c>
       <c r="F108">
         <v>115</v>
       </c>
       <c r="G108">
-        <v>4.2599999999999999E-2</v>
+        <v>1.1599999999999999E-2</v>
       </c>
       <c r="H108">
-        <v>1.21E-2</v>
+        <v>3.31E-3</v>
       </c>
       <c r="I108">
         <v>1.2</v>
       </c>
       <c r="J108">
         <v>0.8</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
       </c>
       <c r="L108">
         <v>1</v>
@@ -15607,16 +16057,16 @@
         <v>266</v>
       </c>
       <c r="E109">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="F109">
         <v>115</v>
       </c>
       <c r="G109">
-        <v>9.3399999999999997E-2</v>
+        <v>8.2110000000000002E-2</v>
       </c>
       <c r="H109">
-        <v>2.6599999999999999E-2</v>
+        <v>2.3400000000000001E-2</v>
       </c>
       <c r="I109">
         <v>1.2</v>
@@ -15624,7 +16074,1830 @@
       <c r="J109">
         <v>0.8</v>
       </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
       <c r="L109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>636</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110" t="s">
+        <v>636</v>
+      </c>
+      <c r="E110">
+        <v>141</v>
+      </c>
+      <c r="F110">
+        <v>115</v>
+      </c>
+      <c r="G110">
+        <v>1.423E-2</v>
+      </c>
+      <c r="H110">
+        <v>4.0600000000000002E-3</v>
+      </c>
+      <c r="I110">
+        <v>1.2</v>
+      </c>
+      <c r="J110">
+        <v>0.8</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>637</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111" t="s">
+        <v>637</v>
+      </c>
+      <c r="E111">
+        <v>142</v>
+      </c>
+      <c r="F111">
+        <v>115</v>
+      </c>
+      <c r="G111">
+        <v>0.37261000000000011</v>
+      </c>
+      <c r="H111">
+        <v>0.1062</v>
+      </c>
+      <c r="I111">
+        <v>1.2</v>
+      </c>
+      <c r="J111">
+        <v>0.8</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>638</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112" t="s">
+        <v>638</v>
+      </c>
+      <c r="E112">
+        <v>143</v>
+      </c>
+      <c r="F112">
+        <v>115</v>
+      </c>
+      <c r="G112">
+        <v>0.26774999999999999</v>
+      </c>
+      <c r="H112">
+        <v>7.6310000000000003E-2</v>
+      </c>
+      <c r="I112">
+        <v>1.2</v>
+      </c>
+      <c r="J112">
+        <v>0.8</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>639</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113" t="s">
+        <v>639</v>
+      </c>
+      <c r="E113">
+        <v>144</v>
+      </c>
+      <c r="F113">
+        <v>115</v>
+      </c>
+      <c r="G113">
+        <v>9.0540000000000009E-2</v>
+      </c>
+      <c r="H113">
+        <v>2.58E-2</v>
+      </c>
+      <c r="I113">
+        <v>1.2</v>
+      </c>
+      <c r="J113">
+        <v>0.8</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>640</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114" t="s">
+        <v>640</v>
+      </c>
+      <c r="E114">
+        <v>145</v>
+      </c>
+      <c r="F114">
+        <v>115</v>
+      </c>
+      <c r="G114">
+        <v>1.503E-2</v>
+      </c>
+      <c r="H114">
+        <v>4.28E-3</v>
+      </c>
+      <c r="I114">
+        <v>1.2</v>
+      </c>
+      <c r="J114">
+        <v>0.8</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>641</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115" t="s">
+        <v>641</v>
+      </c>
+      <c r="E115">
+        <v>145</v>
+      </c>
+      <c r="F115">
+        <v>115</v>
+      </c>
+      <c r="G115">
+        <v>0.16041</v>
+      </c>
+      <c r="H115">
+        <v>4.5719999999999997E-2</v>
+      </c>
+      <c r="I115">
+        <v>1.2</v>
+      </c>
+      <c r="J115">
+        <v>0.8</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>642</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116" t="s">
+        <v>642</v>
+      </c>
+      <c r="E116">
+        <v>148</v>
+      </c>
+      <c r="F116">
+        <v>115</v>
+      </c>
+      <c r="G116">
+        <v>0.32023000000000001</v>
+      </c>
+      <c r="H116">
+        <v>9.1270000000000004E-2</v>
+      </c>
+      <c r="I116">
+        <v>1.2</v>
+      </c>
+      <c r="J116">
+        <v>0.8</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>643</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" t="s">
+        <v>643</v>
+      </c>
+      <c r="E117">
+        <v>157</v>
+      </c>
+      <c r="F117">
+        <v>115</v>
+      </c>
+      <c r="G117">
+        <v>0.14756</v>
+      </c>
+      <c r="H117">
+        <v>4.2049999999999997E-2</v>
+      </c>
+      <c r="I117">
+        <v>1.2</v>
+      </c>
+      <c r="J117">
+        <v>0.8</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>644</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118" t="s">
+        <v>644</v>
+      </c>
+      <c r="E118">
+        <v>158</v>
+      </c>
+      <c r="F118">
+        <v>115</v>
+      </c>
+      <c r="G118">
+        <v>8.9649999999999994E-2</v>
+      </c>
+      <c r="H118">
+        <v>2.555E-2</v>
+      </c>
+      <c r="I118">
+        <v>1.2</v>
+      </c>
+      <c r="J118">
+        <v>0.8</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>645</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119" t="s">
+        <v>645</v>
+      </c>
+      <c r="E119">
+        <v>159</v>
+      </c>
+      <c r="F119">
+        <v>115</v>
+      </c>
+      <c r="G119">
+        <v>1.388E-2</v>
+      </c>
+      <c r="H119">
+        <v>3.96E-3</v>
+      </c>
+      <c r="I119">
+        <v>1.2</v>
+      </c>
+      <c r="J119">
+        <v>0.8</v>
+      </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>646</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120" t="s">
+        <v>646</v>
+      </c>
+      <c r="E120">
+        <v>162</v>
+      </c>
+      <c r="F120">
+        <v>115</v>
+      </c>
+      <c r="G120">
+        <v>1.447E-2</v>
+      </c>
+      <c r="H120">
+        <v>4.1200000000000004E-3</v>
+      </c>
+      <c r="I120">
+        <v>1.2</v>
+      </c>
+      <c r="J120">
+        <v>0.8</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>647</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121" t="s">
+        <v>647</v>
+      </c>
+      <c r="E121">
+        <v>163</v>
+      </c>
+      <c r="F121">
+        <v>115</v>
+      </c>
+      <c r="G121">
+        <v>0.45802999999999999</v>
+      </c>
+      <c r="H121">
+        <v>0.13053999999999999</v>
+      </c>
+      <c r="I121">
+        <v>1.2</v>
+      </c>
+      <c r="J121">
+        <v>0.8</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>648</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122" t="s">
+        <v>648</v>
+      </c>
+      <c r="E122">
+        <v>171</v>
+      </c>
+      <c r="F122">
+        <v>115</v>
+      </c>
+      <c r="G122">
+        <v>4.1480000000000003E-2</v>
+      </c>
+      <c r="H122">
+        <v>1.1820000000000001E-2</v>
+      </c>
+      <c r="I122">
+        <v>1.2</v>
+      </c>
+      <c r="J122">
+        <v>0.8</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>649</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123" t="s">
+        <v>649</v>
+      </c>
+      <c r="E123">
+        <v>171</v>
+      </c>
+      <c r="F123">
+        <v>115</v>
+      </c>
+      <c r="G123">
+        <v>3.7940000000000002E-2</v>
+      </c>
+      <c r="H123">
+        <v>1.081E-2</v>
+      </c>
+      <c r="I123">
+        <v>1.2</v>
+      </c>
+      <c r="J123">
+        <v>0.8</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>650</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124" t="s">
+        <v>650</v>
+      </c>
+      <c r="E124">
+        <v>172</v>
+      </c>
+      <c r="F124">
+        <v>115</v>
+      </c>
+      <c r="G124">
+        <v>1.078E-2</v>
+      </c>
+      <c r="H124">
+        <v>3.0699999999999998E-3</v>
+      </c>
+      <c r="I124">
+        <v>1.2</v>
+      </c>
+      <c r="J124">
+        <v>0.8</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>651</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125" t="s">
+        <v>651</v>
+      </c>
+      <c r="E125">
+        <v>172</v>
+      </c>
+      <c r="F125">
+        <v>115</v>
+      </c>
+      <c r="G125">
+        <v>2.282E-2</v>
+      </c>
+      <c r="H125">
+        <v>6.5100000000000002E-3</v>
+      </c>
+      <c r="I125">
+        <v>1.2</v>
+      </c>
+      <c r="J125">
+        <v>0.8</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>652</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126" t="s">
+        <v>652</v>
+      </c>
+      <c r="E126">
+        <v>172</v>
+      </c>
+      <c r="F126">
+        <v>115</v>
+      </c>
+      <c r="G126">
+        <v>2.0160000000000001E-2</v>
+      </c>
+      <c r="H126">
+        <v>5.7499999999999999E-3</v>
+      </c>
+      <c r="I126">
+        <v>1.2</v>
+      </c>
+      <c r="J126">
+        <v>0.8</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>653</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127" t="s">
+        <v>653</v>
+      </c>
+      <c r="E127">
+        <v>173</v>
+      </c>
+      <c r="F127">
+        <v>115</v>
+      </c>
+      <c r="G127">
+        <v>1.009E-2</v>
+      </c>
+      <c r="H127">
+        <v>2.8700000000000002E-3</v>
+      </c>
+      <c r="I127">
+        <v>1.2</v>
+      </c>
+      <c r="J127">
+        <v>0.8</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>654</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128" t="s">
+        <v>654</v>
+      </c>
+      <c r="E128">
+        <v>173</v>
+      </c>
+      <c r="F128">
+        <v>115</v>
+      </c>
+      <c r="G128">
+        <v>7.7020000000000005E-2</v>
+      </c>
+      <c r="H128">
+        <v>2.1950000000000001E-2</v>
+      </c>
+      <c r="I128">
+        <v>1.2</v>
+      </c>
+      <c r="J128">
+        <v>0.8</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>655</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129" t="s">
+        <v>655</v>
+      </c>
+      <c r="E129">
+        <v>174</v>
+      </c>
+      <c r="F129">
+        <v>115</v>
+      </c>
+      <c r="G129">
+        <v>1.541E-2</v>
+      </c>
+      <c r="H129">
+        <v>4.3899999999999998E-3</v>
+      </c>
+      <c r="I129">
+        <v>1.2</v>
+      </c>
+      <c r="J129">
+        <v>0.8</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>656</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130" t="s">
+        <v>656</v>
+      </c>
+      <c r="E130">
+        <v>174</v>
+      </c>
+      <c r="F130">
+        <v>115</v>
+      </c>
+      <c r="G130">
+        <v>1.226E-2</v>
+      </c>
+      <c r="H130">
+        <v>3.49E-3</v>
+      </c>
+      <c r="I130">
+        <v>1.2</v>
+      </c>
+      <c r="J130">
+        <v>0.8</v>
+      </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>657</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131" t="s">
+        <v>657</v>
+      </c>
+      <c r="E131">
+        <v>175</v>
+      </c>
+      <c r="F131">
+        <v>115</v>
+      </c>
+      <c r="G131">
+        <v>2.1250000000000002E-2</v>
+      </c>
+      <c r="H131">
+        <v>6.0599999999999994E-3</v>
+      </c>
+      <c r="I131">
+        <v>1.2</v>
+      </c>
+      <c r="J131">
+        <v>0.8</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>658</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132" t="s">
+        <v>658</v>
+      </c>
+      <c r="E132">
+        <v>175</v>
+      </c>
+      <c r="F132">
+        <v>115</v>
+      </c>
+      <c r="G132">
+        <v>5.1830000000000001E-2</v>
+      </c>
+      <c r="H132">
+        <v>1.477E-2</v>
+      </c>
+      <c r="I132">
+        <v>1.2</v>
+      </c>
+      <c r="J132">
+        <v>0.8</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>659</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133" t="s">
+        <v>659</v>
+      </c>
+      <c r="E133">
+        <v>176</v>
+      </c>
+      <c r="F133">
+        <v>115</v>
+      </c>
+      <c r="G133">
+        <v>0.19011</v>
+      </c>
+      <c r="H133">
+        <v>5.4179999999999999E-2</v>
+      </c>
+      <c r="I133">
+        <v>1.2</v>
+      </c>
+      <c r="J133">
+        <v>0.8</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>660</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134" t="s">
+        <v>660</v>
+      </c>
+      <c r="E134">
+        <v>177</v>
+      </c>
+      <c r="F134">
+        <v>115</v>
+      </c>
+      <c r="G134">
+        <v>1.405E-2</v>
+      </c>
+      <c r="H134">
+        <v>4.0100000000000014E-3</v>
+      </c>
+      <c r="I134">
+        <v>1.2</v>
+      </c>
+      <c r="J134">
+        <v>0.8</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>661</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135" t="s">
+        <v>661</v>
+      </c>
+      <c r="E135">
+        <v>177</v>
+      </c>
+      <c r="F135">
+        <v>115</v>
+      </c>
+      <c r="G135">
+        <v>3.0620000000000001E-2</v>
+      </c>
+      <c r="H135">
+        <v>8.7299999999999999E-3</v>
+      </c>
+      <c r="I135">
+        <v>1.2</v>
+      </c>
+      <c r="J135">
+        <v>0.8</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>662</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136" t="s">
+        <v>662</v>
+      </c>
+      <c r="E136">
+        <v>177</v>
+      </c>
+      <c r="F136">
+        <v>115</v>
+      </c>
+      <c r="G136">
+        <v>6.8199999999999997E-2</v>
+      </c>
+      <c r="H136">
+        <v>1.9439999999999999E-2</v>
+      </c>
+      <c r="I136">
+        <v>1.2</v>
+      </c>
+      <c r="J136">
+        <v>0.8</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>663</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137" t="s">
+        <v>663</v>
+      </c>
+      <c r="E137">
+        <v>179</v>
+      </c>
+      <c r="F137">
+        <v>115</v>
+      </c>
+      <c r="G137">
+        <v>0.23608000000000001</v>
+      </c>
+      <c r="H137">
+        <v>6.7279999999999993E-2</v>
+      </c>
+      <c r="I137">
+        <v>1.2</v>
+      </c>
+      <c r="J137">
+        <v>0.8</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>664</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138" t="s">
+        <v>664</v>
+      </c>
+      <c r="E138">
+        <v>180</v>
+      </c>
+      <c r="F138">
+        <v>115</v>
+      </c>
+      <c r="G138">
+        <v>7.7450000000000005E-2</v>
+      </c>
+      <c r="H138">
+        <v>2.2069999999999999E-2</v>
+      </c>
+      <c r="I138">
+        <v>1.2</v>
+      </c>
+      <c r="J138">
+        <v>0.8</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>665</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139" t="s">
+        <v>665</v>
+      </c>
+      <c r="E139">
+        <v>181</v>
+      </c>
+      <c r="F139">
+        <v>115</v>
+      </c>
+      <c r="G139">
+        <v>1.438E-2</v>
+      </c>
+      <c r="H139">
+        <v>4.0999999999999986E-3</v>
+      </c>
+      <c r="I139">
+        <v>1.2</v>
+      </c>
+      <c r="J139">
+        <v>0.8</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>666</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140" t="s">
+        <v>666</v>
+      </c>
+      <c r="E140">
+        <v>181</v>
+      </c>
+      <c r="F140">
+        <v>115</v>
+      </c>
+      <c r="G140">
+        <v>0.46544000000000002</v>
+      </c>
+      <c r="H140">
+        <v>0.13264999999999999</v>
+      </c>
+      <c r="I140">
+        <v>1.2</v>
+      </c>
+      <c r="J140">
+        <v>0.8</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>667</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141" t="s">
+        <v>667</v>
+      </c>
+      <c r="E141">
+        <v>184</v>
+      </c>
+      <c r="F141">
+        <v>115</v>
+      </c>
+      <c r="G141">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="H141">
+        <v>1.5399999999999999E-3</v>
+      </c>
+      <c r="I141">
+        <v>1.2</v>
+      </c>
+      <c r="J141">
+        <v>0.8</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>668</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142" t="s">
+        <v>668</v>
+      </c>
+      <c r="E142">
+        <v>184</v>
+      </c>
+      <c r="F142">
+        <v>115</v>
+      </c>
+      <c r="G142">
+        <v>9.4199999999999996E-3</v>
+      </c>
+      <c r="H142">
+        <v>2.6800000000000001E-3</v>
+      </c>
+      <c r="I142">
+        <v>1.2</v>
+      </c>
+      <c r="J142">
+        <v>0.8</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>669</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143" t="s">
+        <v>669</v>
+      </c>
+      <c r="E143">
+        <v>184</v>
+      </c>
+      <c r="F143">
+        <v>115</v>
+      </c>
+      <c r="G143">
+        <v>9.2100000000000015E-2</v>
+      </c>
+      <c r="H143">
+        <v>2.6249999999999999E-2</v>
+      </c>
+      <c r="I143">
+        <v>1.2</v>
+      </c>
+      <c r="J143">
+        <v>0.8</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>670</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144" t="s">
+        <v>670</v>
+      </c>
+      <c r="E144">
+        <v>185</v>
+      </c>
+      <c r="F144">
+        <v>115</v>
+      </c>
+      <c r="G144">
+        <v>1.898E-2</v>
+      </c>
+      <c r="H144">
+        <v>5.4100000000000007E-3</v>
+      </c>
+      <c r="I144">
+        <v>1.2</v>
+      </c>
+      <c r="J144">
+        <v>0.8</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>671</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145" t="s">
+        <v>671</v>
+      </c>
+      <c r="E145">
+        <v>185</v>
+      </c>
+      <c r="F145">
+        <v>115</v>
+      </c>
+      <c r="G145">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="H145">
+        <v>3.2200000000000002E-3</v>
+      </c>
+      <c r="I145">
+        <v>1.2</v>
+      </c>
+      <c r="J145">
+        <v>0.8</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>672</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146" t="s">
+        <v>672</v>
+      </c>
+      <c r="E146">
+        <v>185</v>
+      </c>
+      <c r="F146">
+        <v>115</v>
+      </c>
+      <c r="G146">
+        <v>7.7619999999999995E-2</v>
+      </c>
+      <c r="H146">
+        <v>2.2120000000000001E-2</v>
+      </c>
+      <c r="I146">
+        <v>1.2</v>
+      </c>
+      <c r="J146">
+        <v>0.8</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>673</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147" t="s">
+        <v>673</v>
+      </c>
+      <c r="E147">
+        <v>186</v>
+      </c>
+      <c r="F147">
+        <v>115</v>
+      </c>
+      <c r="G147">
+        <v>2.104E-2</v>
+      </c>
+      <c r="H147">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I147">
+        <v>1.2</v>
+      </c>
+      <c r="J147">
+        <v>0.8</v>
+      </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>674</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148" t="s">
+        <v>674</v>
+      </c>
+      <c r="E148">
+        <v>190</v>
+      </c>
+      <c r="F148">
+        <v>115</v>
+      </c>
+      <c r="G148">
+        <v>0.16789000000000001</v>
+      </c>
+      <c r="H148">
+        <v>4.7849999999999997E-2</v>
+      </c>
+      <c r="I148">
+        <v>1.2</v>
+      </c>
+      <c r="J148">
+        <v>0.8</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>675</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149" t="s">
+        <v>675</v>
+      </c>
+      <c r="E149">
+        <v>191</v>
+      </c>
+      <c r="F149">
+        <v>115</v>
+      </c>
+      <c r="G149">
+        <v>7.3200000000000001E-3</v>
+      </c>
+      <c r="H149">
+        <v>2.0899999999999998E-3</v>
+      </c>
+      <c r="I149">
+        <v>1.2</v>
+      </c>
+      <c r="J149">
+        <v>0.8</v>
+      </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>676</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150" t="s">
+        <v>676</v>
+      </c>
+      <c r="E150">
+        <v>191</v>
+      </c>
+      <c r="F150">
+        <v>115</v>
+      </c>
+      <c r="G150">
+        <v>2.5669999999999998E-2</v>
+      </c>
+      <c r="H150">
+        <v>7.3200000000000001E-3</v>
+      </c>
+      <c r="I150">
+        <v>1.2</v>
+      </c>
+      <c r="J150">
+        <v>0.8</v>
+      </c>
+      <c r="K150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>677</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151" t="s">
+        <v>677</v>
+      </c>
+      <c r="E151">
+        <v>191</v>
+      </c>
+      <c r="F151">
+        <v>115</v>
+      </c>
+      <c r="G151">
+        <v>3.2299999999999998E-3</v>
+      </c>
+      <c r="H151">
+        <v>9.2000000000000003E-4</v>
+      </c>
+      <c r="I151">
+        <v>1.2</v>
+      </c>
+      <c r="J151">
+        <v>0.8</v>
+      </c>
+      <c r="K151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>678</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152" t="s">
+        <v>678</v>
+      </c>
+      <c r="E152">
+        <v>191</v>
+      </c>
+      <c r="F152">
+        <v>115</v>
+      </c>
+      <c r="G152">
+        <v>3.6049999999999999E-2</v>
+      </c>
+      <c r="H152">
+        <v>1.027E-2</v>
+      </c>
+      <c r="I152">
+        <v>1.2</v>
+      </c>
+      <c r="J152">
+        <v>0.8</v>
+      </c>
+      <c r="K152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>679</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153" t="s">
+        <v>679</v>
+      </c>
+      <c r="E153">
+        <v>192</v>
+      </c>
+      <c r="F153">
+        <v>115</v>
+      </c>
+      <c r="G153">
+        <v>0.52741000000000005</v>
+      </c>
+      <c r="H153">
+        <v>0.15031</v>
+      </c>
+      <c r="I153">
+        <v>1.2</v>
+      </c>
+      <c r="J153">
+        <v>0.8</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>680</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154" t="s">
+        <v>680</v>
+      </c>
+      <c r="E154">
+        <v>193</v>
+      </c>
+      <c r="F154">
+        <v>115</v>
+      </c>
+      <c r="G154">
+        <v>0.21987999999999999</v>
+      </c>
+      <c r="H154">
+        <v>6.2659999999999993E-2</v>
+      </c>
+      <c r="I154">
+        <v>1.2</v>
+      </c>
+      <c r="J154">
+        <v>0.8</v>
+      </c>
+      <c r="K154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>681</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155" t="s">
+        <v>681</v>
+      </c>
+      <c r="E155">
+        <v>194</v>
+      </c>
+      <c r="F155">
+        <v>115</v>
+      </c>
+      <c r="G155">
+        <v>0.37574999999999997</v>
+      </c>
+      <c r="H155">
+        <v>0.10709</v>
+      </c>
+      <c r="I155">
+        <v>1.2</v>
+      </c>
+      <c r="J155">
+        <v>0.8</v>
+      </c>
+      <c r="K155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>682</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156" t="s">
+        <v>682</v>
+      </c>
+      <c r="E156">
+        <v>198</v>
+      </c>
+      <c r="F156">
+        <v>115</v>
+      </c>
+      <c r="G156">
+        <v>5.373E-2</v>
+      </c>
+      <c r="H156">
+        <v>1.5310000000000001E-2</v>
+      </c>
+      <c r="I156">
+        <v>1.2</v>
+      </c>
+      <c r="J156">
+        <v>0.8</v>
+      </c>
+      <c r="K156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>683</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157" t="s">
+        <v>683</v>
+      </c>
+      <c r="E157">
+        <v>199</v>
+      </c>
+      <c r="F157">
+        <v>115</v>
+      </c>
+      <c r="G157">
+        <v>2.2450000000000001E-2</v>
+      </c>
+      <c r="H157">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="I157">
+        <v>1.2</v>
+      </c>
+      <c r="J157">
+        <v>0.8</v>
+      </c>
+      <c r="K157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>684</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158" t="s">
+        <v>684</v>
+      </c>
+      <c r="E158">
+        <v>199</v>
+      </c>
+      <c r="F158">
+        <v>115</v>
+      </c>
+      <c r="G158">
+        <v>2.01E-2</v>
+      </c>
+      <c r="H158">
+        <v>5.7299999999999999E-3</v>
+      </c>
+      <c r="I158">
+        <v>1.2</v>
+      </c>
+      <c r="J158">
+        <v>0.8</v>
+      </c>
+      <c r="K158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>685</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159" t="s">
+        <v>685</v>
+      </c>
+      <c r="E159">
+        <v>200</v>
+      </c>
+      <c r="F159">
+        <v>115</v>
+      </c>
+      <c r="G159">
+        <v>7.0899999999999999E-3</v>
+      </c>
+      <c r="H159">
+        <v>2.0200000000000001E-3</v>
+      </c>
+      <c r="I159">
+        <v>1.2</v>
+      </c>
+      <c r="J159">
+        <v>0.8</v>
+      </c>
+      <c r="K159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>686</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160" t="s">
+        <v>686</v>
+      </c>
+      <c r="E160">
+        <v>200</v>
+      </c>
+      <c r="F160">
+        <v>115</v>
+      </c>
+      <c r="G160">
+        <v>9.5099999999999994E-3</v>
+      </c>
+      <c r="H160">
+        <v>2.7100000000000002E-3</v>
+      </c>
+      <c r="I160">
+        <v>1.2</v>
+      </c>
+      <c r="J160">
+        <v>0.8</v>
+      </c>
+      <c r="K160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>687</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161" t="s">
+        <v>687</v>
+      </c>
+      <c r="E161">
+        <v>200</v>
+      </c>
+      <c r="F161">
+        <v>115</v>
+      </c>
+      <c r="G161">
+        <v>7.6829999999999996E-2</v>
+      </c>
+      <c r="H161">
+        <v>2.1899999999999999E-2</v>
+      </c>
+      <c r="I161">
+        <v>1.2</v>
+      </c>
+      <c r="J161">
+        <v>0.8</v>
+      </c>
+      <c r="K161">
         <v>1</v>
       </c>
     </row>
@@ -15637,9 +17910,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AL2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
+      <selection pane="bottomLeft" sqref="A1:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15782,14 +18055,11 @@
       <c r="G2">
         <v>189</v>
       </c>
-      <c r="H2">
-        <v>189</v>
-      </c>
       <c r="I2">
-        <v>3.8437000000000001</v>
+        <v>3.8436699999999999</v>
       </c>
       <c r="J2">
-        <v>-0.24149999999999999</v>
+        <v>-0.24154</v>
       </c>
       <c r="K2">
         <v>5.6914999999999996</v>
@@ -15816,7 +18086,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.3</v>
+        <v>0.1512</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -15885,9 +18155,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AK49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="Z1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF12" sqref="AF12"/>
+      <selection pane="bottomLeft" activeCell="AK9" sqref="AK9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16027,14 +18297,11 @@
       <c r="G2">
         <v>49</v>
       </c>
-      <c r="H2">
-        <v>49</v>
-      </c>
       <c r="I2">
         <v>1.3599999999999999E-2</v>
       </c>
       <c r="J2">
-        <v>8.8000000000000005E-3</v>
+        <v>8.8400000000000006E-3</v>
       </c>
       <c r="K2">
         <v>4.53E-2</v>
@@ -16061,7 +18328,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.3</v>
+        <v>0.3165</v>
       </c>
       <c r="T2">
         <v>1</v>
@@ -16140,14 +18407,11 @@
       <c r="G3">
         <v>50</v>
       </c>
-      <c r="H3">
-        <v>50</v>
-      </c>
       <c r="I3">
         <v>1.3599999999999999E-2</v>
       </c>
       <c r="J3">
-        <v>1.18E-2</v>
+        <v>1.179E-2</v>
       </c>
       <c r="K3">
         <v>4.53E-2</v>
@@ -16174,7 +18438,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.3</v>
+        <v>0.1295</v>
       </c>
       <c r="T3">
         <v>1</v>
@@ -16253,14 +18517,11 @@
       <c r="G4">
         <v>51</v>
       </c>
-      <c r="H4">
-        <v>51</v>
-      </c>
       <c r="I4">
         <v>1.3599999999999999E-2</v>
       </c>
       <c r="J4">
-        <v>7.7000000000000002E-3</v>
+        <v>7.6899999999999998E-3</v>
       </c>
       <c r="K4">
         <v>4.53E-2</v>
@@ -16287,7 +18548,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3</v>
+        <v>0.152</v>
       </c>
       <c r="T4">
         <v>1</v>
@@ -16366,14 +18627,11 @@
       <c r="G5">
         <v>52</v>
       </c>
-      <c r="H5">
-        <v>52</v>
-      </c>
       <c r="I5">
         <v>1.3599999999999999E-2</v>
       </c>
       <c r="J5">
-        <v>1.2500000000000001E-2</v>
+        <v>1.2540000000000001E-2</v>
       </c>
       <c r="K5">
         <v>4.53E-2</v>
@@ -16400,7 +18658,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.3</v>
+        <v>0.1535</v>
       </c>
       <c r="T5">
         <v>1</v>
@@ -16479,14 +18737,11 @@
       <c r="G6">
         <v>53</v>
       </c>
-      <c r="H6">
-        <v>53</v>
-      </c>
       <c r="I6">
         <v>2.7199999999999998E-2</v>
       </c>
       <c r="J6">
-        <v>7.9000000000000008E-3</v>
+        <v>7.9500000000000005E-3</v>
       </c>
       <c r="K6">
         <v>9.0700000000000003E-2</v>
@@ -16513,7 +18768,7 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.3</v>
+        <v>0.2175</v>
       </c>
       <c r="T6">
         <v>1</v>
@@ -16592,20 +18847,17 @@
       <c r="G7">
         <v>65</v>
       </c>
-      <c r="H7">
-        <v>65</v>
-      </c>
       <c r="I7">
         <v>0.86499999999999999</v>
       </c>
       <c r="J7">
-        <v>8.3999999999999995E-3</v>
+        <v>8.4399999999999996E-3</v>
       </c>
       <c r="K7">
-        <v>0.86499999999999999</v>
+        <v>1.504</v>
       </c>
       <c r="L7">
-        <v>0.86499999999999999</v>
+        <v>0.45119999999999999</v>
       </c>
       <c r="M7">
         <v>0.32040000000000002</v>
@@ -16626,7 +18878,7 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0.3</v>
+        <v>0.13350000000000001</v>
       </c>
       <c r="T7">
         <v>1</v>
@@ -16705,9 +18957,6 @@
       <c r="G8">
         <v>67</v>
       </c>
-      <c r="H8">
-        <v>67</v>
-      </c>
       <c r="I8">
         <v>1.41E-2</v>
       </c>
@@ -16739,7 +18988,7 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0.3</v>
+        <v>0.29189999999999999</v>
       </c>
       <c r="T8">
         <v>1</v>
@@ -16818,14 +19067,11 @@
       <c r="G9">
         <v>68</v>
       </c>
-      <c r="H9">
-        <v>68</v>
-      </c>
       <c r="I9">
         <v>8.3800000000000013E-2</v>
       </c>
       <c r="J9">
-        <v>-5.5000000000000014E-3</v>
+        <v>-5.5200000000000006E-3</v>
       </c>
       <c r="K9">
         <v>0.2792</v>
@@ -16852,7 +19098,7 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0.3</v>
+        <v>9.0399999999999994E-2</v>
       </c>
       <c r="T9">
         <v>1</v>
@@ -16931,14 +19177,11 @@
       <c r="G10">
         <v>69</v>
       </c>
-      <c r="H10">
-        <v>69</v>
-      </c>
       <c r="I10">
         <v>8.3800000000000013E-2</v>
       </c>
       <c r="J10">
-        <v>-1.5299999999999999E-2</v>
+        <v>-1.529E-2</v>
       </c>
       <c r="K10">
         <v>0.2792</v>
@@ -16965,7 +19208,7 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>0.3</v>
+        <v>0.2858</v>
       </c>
       <c r="T10">
         <v>1</v>
@@ -17044,14 +19287,11 @@
       <c r="G11">
         <v>70</v>
       </c>
-      <c r="H11">
-        <v>70</v>
-      </c>
       <c r="I11">
         <v>8.3800000000000013E-2</v>
       </c>
       <c r="J11">
-        <v>-7.8000000000000014E-3</v>
+        <v>-7.8200000000000006E-3</v>
       </c>
       <c r="K11">
         <v>0.2792</v>
@@ -17078,7 +19318,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.3</v>
+        <v>0.18540000000000001</v>
       </c>
       <c r="T11">
         <v>1</v>
@@ -17157,14 +19397,11 @@
       <c r="G12">
         <v>71</v>
       </c>
-      <c r="H12">
-        <v>71</v>
-      </c>
       <c r="I12">
         <v>8.3800000000000013E-2</v>
       </c>
       <c r="J12">
-        <v>-1.7000000000000001E-2</v>
+        <v>-1.7010000000000001E-2</v>
       </c>
       <c r="K12">
         <v>0.2792</v>
@@ -17191,7 +19428,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.3</v>
+        <v>0.1565</v>
       </c>
       <c r="T12">
         <v>1</v>
@@ -17270,14 +19507,11 @@
       <c r="G13">
         <v>72</v>
       </c>
-      <c r="H13">
-        <v>72</v>
-      </c>
       <c r="I13">
         <v>8.3800000000000013E-2</v>
       </c>
       <c r="J13">
-        <v>-1.8599999999999998E-2</v>
+        <v>-1.864E-2</v>
       </c>
       <c r="K13">
         <v>0.2792</v>
@@ -17304,7 +19538,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.3</v>
+        <v>0.1759</v>
       </c>
       <c r="T13">
         <v>1</v>
@@ -17383,14 +19617,11 @@
       <c r="G14">
         <v>73</v>
       </c>
-      <c r="H14">
-        <v>73</v>
-      </c>
       <c r="I14">
         <v>8.3800000000000013E-2</v>
       </c>
       <c r="J14">
-        <v>-1.11E-2</v>
+        <v>-1.106E-2</v>
       </c>
       <c r="K14">
         <v>0.2792</v>
@@ -17417,7 +19648,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0.3</v>
+        <v>0.24249999999999999</v>
       </c>
       <c r="T14">
         <v>1</v>
@@ -17496,14 +19727,11 @@
       <c r="G15">
         <v>76</v>
       </c>
-      <c r="H15">
-        <v>76</v>
-      </c>
       <c r="I15">
         <v>1.2E-2</v>
       </c>
       <c r="J15">
-        <v>1.41E-2</v>
+        <v>1.4069999999999999E-2</v>
       </c>
       <c r="K15">
         <v>0.04</v>
@@ -17530,7 +19758,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3</v>
+        <v>0.20816000000000001</v>
       </c>
       <c r="T15">
         <v>1</v>
@@ -17609,14 +19837,11 @@
       <c r="G16">
         <v>77</v>
       </c>
-      <c r="H16">
-        <v>77</v>
-      </c>
       <c r="I16">
         <v>7.1999999999999998E-3</v>
       </c>
       <c r="J16">
-        <v>5.0000000000000001E-3</v>
+        <v>5.0200000000000002E-3</v>
       </c>
       <c r="K16">
         <v>2.4E-2</v>
@@ -17643,7 +19868,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.3</v>
+        <v>0.14169999999999999</v>
       </c>
       <c r="T16">
         <v>1</v>
@@ -17722,14 +19947,11 @@
       <c r="G17">
         <v>78</v>
       </c>
-      <c r="H17">
-        <v>78</v>
-      </c>
       <c r="I17">
-        <v>0</v>
+        <v>5.4000000000000013E-2</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.1759999999999999E-2</v>
       </c>
       <c r="K17">
         <v>0.18</v>
@@ -17756,7 +19978,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.3</v>
+        <v>0.17849999999999999</v>
       </c>
       <c r="T17">
         <v>1</v>
@@ -17835,14 +20057,11 @@
       <c r="G18">
         <v>79</v>
       </c>
-      <c r="H18">
-        <v>79</v>
-      </c>
       <c r="I18">
-        <v>0</v>
+        <v>5.4000000000000013E-2</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>3.4799999999999998E-2</v>
       </c>
       <c r="K18">
         <v>0.18</v>
@@ -17869,7 +20088,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.3</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="T18">
         <v>1</v>
@@ -17948,14 +20167,11 @@
       <c r="G19">
         <v>90</v>
       </c>
-      <c r="H19">
-        <v>90</v>
-      </c>
       <c r="I19">
         <v>9.5999999999999992E-3</v>
       </c>
       <c r="J19">
-        <v>1.2999999999999999E-3</v>
+        <v>1.31E-3</v>
       </c>
       <c r="K19">
         <v>3.2000000000000001E-2</v>
@@ -17982,7 +20198,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.3</v>
+        <v>0.13550000000000001</v>
       </c>
       <c r="T19">
         <v>1</v>
@@ -18061,14 +20277,11 @@
       <c r="G20">
         <v>91</v>
       </c>
-      <c r="H20">
-        <v>91</v>
-      </c>
       <c r="I20">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="J20">
-        <v>5.8999999999999999E-3</v>
+        <v>5.94E-3</v>
       </c>
       <c r="K20">
         <v>0.05</v>
@@ -18095,7 +20308,7 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>0.3</v>
+        <v>0.15790000000000001</v>
       </c>
       <c r="T20">
         <v>1</v>
@@ -18174,14 +20387,11 @@
       <c r="G21">
         <v>92</v>
       </c>
-      <c r="H21">
-        <v>92</v>
-      </c>
       <c r="I21">
-        <v>0</v>
+        <v>1.89E-2</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>3.2099999999999997E-2</v>
       </c>
       <c r="K21">
         <v>6.3E-2</v>
@@ -18208,7 +20418,7 @@
         <v>0</v>
       </c>
       <c r="S21">
-        <v>0.3</v>
+        <v>0.33589999999999998</v>
       </c>
       <c r="T21">
         <v>1</v>
@@ -18287,9 +20497,6 @@
       <c r="G22">
         <v>94</v>
       </c>
-      <c r="H22">
-        <v>94</v>
-      </c>
       <c r="I22">
         <v>5.4000000000000013E-2</v>
       </c>
@@ -18321,7 +20528,7 @@
         <v>0</v>
       </c>
       <c r="S22">
-        <v>0.3</v>
+        <v>0.1552</v>
       </c>
       <c r="T22">
         <v>1</v>
@@ -18400,20 +20607,17 @@
       <c r="G23">
         <v>104</v>
       </c>
-      <c r="H23">
-        <v>104</v>
-      </c>
       <c r="I23">
         <v>0.67599999999999993</v>
       </c>
       <c r="J23">
-        <v>3.1E-2</v>
+        <v>3.0960000000000001E-2</v>
       </c>
       <c r="K23">
-        <v>0.67599999999999993</v>
+        <v>0.99</v>
       </c>
       <c r="L23">
-        <v>0.67599999999999993</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="M23">
         <v>0.2109</v>
@@ -18434,7 +20638,7 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>0.3</v>
+        <v>9.5899999999999999E-2</v>
       </c>
       <c r="T23">
         <v>1</v>
@@ -18513,20 +20717,17 @@
       <c r="G24">
         <v>105</v>
       </c>
-      <c r="H24">
-        <v>105</v>
-      </c>
       <c r="I24">
         <v>1.548</v>
       </c>
       <c r="J24">
-        <v>8.2899999999999988E-2</v>
+        <v>8.2919999999999994E-2</v>
       </c>
       <c r="K24">
-        <v>1.548</v>
+        <v>1.98</v>
       </c>
       <c r="L24">
-        <v>1.548</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="M24">
         <v>0.42170000000000002</v>
@@ -18547,7 +20748,7 @@
         <v>0</v>
       </c>
       <c r="S24">
-        <v>0.3</v>
+        <v>0.2303</v>
       </c>
       <c r="T24">
         <v>1</v>
@@ -18626,9 +20827,6 @@
       <c r="G25">
         <v>114</v>
       </c>
-      <c r="H25">
-        <v>114</v>
-      </c>
       <c r="I25">
         <v>1.4E-2</v>
       </c>
@@ -18636,10 +20834,10 @@
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="K25">
-        <v>1.4E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="L25">
-        <v>1.4E-2</v>
+        <v>5.1000000000000004E-3</v>
       </c>
       <c r="M25">
         <v>3.5999999999999999E-3</v>
@@ -18660,7 +20858,7 @@
         <v>0</v>
       </c>
       <c r="S25">
-        <v>0.3</v>
+        <v>0.19270000000000001</v>
       </c>
       <c r="T25">
         <v>1</v>
@@ -18739,20 +20937,17 @@
       <c r="G26">
         <v>115</v>
       </c>
-      <c r="H26">
-        <v>115</v>
-      </c>
       <c r="I26">
         <v>1.335</v>
       </c>
       <c r="J26">
-        <v>0.126</v>
+        <v>0.12595999999999999</v>
       </c>
       <c r="K26">
-        <v>1.335</v>
+        <v>1.5</v>
       </c>
       <c r="L26">
-        <v>1.335</v>
+        <v>0.45</v>
       </c>
       <c r="M26">
         <v>0.31950000000000001</v>
@@ -18773,7 +20968,7 @@
         <v>0</v>
       </c>
       <c r="S26">
-        <v>0.3</v>
+        <v>0.15529999999999999</v>
       </c>
       <c r="T26">
         <v>1</v>
@@ -18852,14 +21047,11 @@
       <c r="G27">
         <v>125</v>
       </c>
-      <c r="H27">
-        <v>125</v>
-      </c>
       <c r="I27">
         <v>0.39019999999999999</v>
       </c>
       <c r="J27">
-        <v>7.2400000000000006E-2</v>
+        <v>7.2440000000000004E-2</v>
       </c>
       <c r="K27">
         <v>1.3005</v>
@@ -18886,7 +21078,7 @@
         <v>0</v>
       </c>
       <c r="S27">
-        <v>0.3</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="T27">
         <v>1</v>
@@ -18965,14 +21157,11 @@
       <c r="G28">
         <v>126</v>
       </c>
-      <c r="H28">
-        <v>126</v>
-      </c>
       <c r="I28">
         <v>0.39019999999999999</v>
       </c>
       <c r="J28">
-        <v>0.1255</v>
+        <v>0.12545999999999999</v>
       </c>
       <c r="K28">
         <v>1.3005</v>
@@ -18999,7 +21188,7 @@
         <v>0</v>
       </c>
       <c r="S28">
-        <v>0.3</v>
+        <v>0.11409999999999999</v>
       </c>
       <c r="T28">
         <v>1</v>
@@ -19078,9 +21267,6 @@
       <c r="G29">
         <v>127</v>
       </c>
-      <c r="H29">
-        <v>127</v>
-      </c>
       <c r="I29">
         <v>0.39019999999999999</v>
       </c>
@@ -19112,7 +21298,7 @@
         <v>0</v>
       </c>
       <c r="S29">
-        <v>0.3</v>
+        <v>9.06E-2</v>
       </c>
       <c r="T29">
         <v>1</v>
@@ -19191,14 +21377,11 @@
       <c r="G30">
         <v>135</v>
       </c>
-      <c r="H30">
-        <v>135</v>
-      </c>
       <c r="I30">
         <v>1.3391999999999999</v>
       </c>
       <c r="J30">
-        <v>0.21460000000000001</v>
+        <v>0.21462999999999999</v>
       </c>
       <c r="K30">
         <v>4.4640000000000004</v>
@@ -19225,7 +21408,7 @@
         <v>0</v>
       </c>
       <c r="S30">
-        <v>0.3</v>
+        <v>0.25390000000000001</v>
       </c>
       <c r="T30">
         <v>1</v>
@@ -19304,14 +21487,11 @@
       <c r="G31">
         <v>136</v>
       </c>
-      <c r="H31">
-        <v>136</v>
-      </c>
       <c r="I31">
         <v>1.3391999999999999</v>
       </c>
       <c r="J31">
-        <v>0.25059999999999999</v>
+        <v>0.25058000000000002</v>
       </c>
       <c r="K31">
         <v>4.4640000000000004</v>
@@ -19338,7 +21518,7 @@
         <v>0</v>
       </c>
       <c r="S31">
-        <v>0.3</v>
+        <v>0.20219999999999999</v>
       </c>
       <c r="T31">
         <v>1</v>
@@ -19417,20 +21597,17 @@
       <c r="G32">
         <v>147</v>
       </c>
-      <c r="H32">
-        <v>147</v>
-      </c>
       <c r="I32">
         <v>0.92400000000000004</v>
       </c>
       <c r="J32">
-        <v>8.7899999999999992E-2</v>
+        <v>8.795E-2</v>
       </c>
       <c r="K32">
-        <v>0.92400000000000004</v>
+        <v>1.0049999999999999</v>
       </c>
       <c r="L32">
-        <v>0.92400000000000004</v>
+        <v>0.30149999999999999</v>
       </c>
       <c r="M32">
         <v>0.21410000000000001</v>
@@ -19451,7 +21628,7 @@
         <v>0</v>
       </c>
       <c r="S32">
-        <v>0.3</v>
+        <v>0.3493</v>
       </c>
       <c r="T32">
         <v>1</v>
@@ -19530,14 +21707,11 @@
       <c r="G33">
         <v>151</v>
       </c>
-      <c r="H33">
-        <v>151</v>
-      </c>
       <c r="I33">
         <v>1.6199999999999999E-2</v>
       </c>
       <c r="J33">
-        <v>2.0000000000000001E-4</v>
+        <v>2.3000000000000001E-4</v>
       </c>
       <c r="K33">
         <v>5.4000000000000013E-2</v>
@@ -19564,7 +21738,7 @@
         <v>0</v>
       </c>
       <c r="S33">
-        <v>0.3</v>
+        <v>0.14829999999999999</v>
       </c>
       <c r="T33">
         <v>1</v>
@@ -19643,9 +21817,6 @@
       <c r="G34">
         <v>152</v>
       </c>
-      <c r="H34">
-        <v>152</v>
-      </c>
       <c r="I34">
         <v>0.23169999999999999</v>
       </c>
@@ -19677,7 +21848,7 @@
         <v>0</v>
       </c>
       <c r="S34">
-        <v>0.3</v>
+        <v>0.2296</v>
       </c>
       <c r="T34">
         <v>1</v>
@@ -19756,9 +21927,6 @@
       <c r="G35">
         <v>153</v>
       </c>
-      <c r="H35">
-        <v>153</v>
-      </c>
       <c r="I35">
         <v>0.23169999999999999</v>
       </c>
@@ -19790,7 +21958,7 @@
         <v>0</v>
       </c>
       <c r="S35">
-        <v>0.3</v>
+        <v>0.22209999999999999</v>
       </c>
       <c r="T35">
         <v>1</v>
@@ -19869,14 +22037,11 @@
       <c r="G36">
         <v>154</v>
       </c>
-      <c r="H36">
-        <v>154</v>
-      </c>
       <c r="I36">
         <v>0.23169999999999999</v>
       </c>
       <c r="J36">
-        <v>1.4E-3</v>
+        <v>1.4400000000000001E-3</v>
       </c>
       <c r="K36">
         <v>0.7722</v>
@@ -19903,7 +22068,7 @@
         <v>0</v>
       </c>
       <c r="S36">
-        <v>0.3</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="T36">
         <v>1</v>
@@ -19982,14 +22147,11 @@
       <c r="G37">
         <v>155</v>
       </c>
-      <c r="H37">
-        <v>155</v>
-      </c>
       <c r="I37">
         <v>0.23169999999999999</v>
       </c>
       <c r="J37">
-        <v>1.2999999999999999E-3</v>
+        <v>1.32E-3</v>
       </c>
       <c r="K37">
         <v>0.7722</v>
@@ -20016,7 +22178,7 @@
         <v>0</v>
       </c>
       <c r="S37">
-        <v>0.3</v>
+        <v>0.14960000000000001</v>
       </c>
       <c r="T37">
         <v>1</v>
@@ -20095,14 +22257,11 @@
       <c r="G38">
         <v>161</v>
       </c>
-      <c r="H38">
-        <v>161</v>
-      </c>
       <c r="I38">
-        <v>0</v>
+        <v>0.4158</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>0.36304999999999998</v>
       </c>
       <c r="K38">
         <v>1.3859999999999999</v>
@@ -20129,7 +22288,7 @@
         <v>0</v>
       </c>
       <c r="S38">
-        <v>0.3</v>
+        <v>0.25290000000000001</v>
       </c>
       <c r="T38">
         <v>1</v>
@@ -20208,14 +22367,11 @@
       <c r="G39">
         <v>164</v>
       </c>
-      <c r="H39">
-        <v>164</v>
-      </c>
       <c r="I39">
-        <v>0</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>6.1100000000000002E-2</v>
       </c>
       <c r="K39">
         <v>0.12</v>
@@ -20242,7 +22398,7 @@
         <v>0</v>
       </c>
       <c r="S39">
-        <v>0.3</v>
+        <v>0.1226</v>
       </c>
       <c r="T39">
         <v>1</v>
@@ -20321,14 +22477,11 @@
       <c r="G40">
         <v>165</v>
       </c>
-      <c r="H40">
-        <v>165</v>
-      </c>
       <c r="I40">
-        <v>0</v>
+        <v>7.8E-2</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>0.1323</v>
       </c>
       <c r="K40">
         <v>0.26</v>
@@ -20355,7 +22508,7 @@
         <v>0</v>
       </c>
       <c r="S40">
-        <v>0.3</v>
+        <v>0.2034</v>
       </c>
       <c r="T40">
         <v>1</v>
@@ -20434,14 +22587,11 @@
       <c r="G41">
         <v>166</v>
       </c>
-      <c r="H41">
-        <v>166</v>
-      </c>
       <c r="I41">
-        <v>0</v>
+        <v>2.8199999999999999E-2</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>4.7800000000000002E-2</v>
       </c>
       <c r="K41">
         <v>9.4E-2</v>
@@ -20468,7 +22618,7 @@
         <v>0</v>
       </c>
       <c r="S41">
-        <v>0.3</v>
+        <v>0.1394</v>
       </c>
       <c r="T41">
         <v>1</v>
@@ -20547,9 +22697,6 @@
       <c r="G42">
         <v>167</v>
       </c>
-      <c r="H42">
-        <v>167</v>
-      </c>
       <c r="I42">
         <v>2.8199999999999999E-2</v>
       </c>
@@ -20581,7 +22728,7 @@
         <v>0</v>
       </c>
       <c r="S42">
-        <v>0.3</v>
+        <v>0.2823</v>
       </c>
       <c r="T42">
         <v>1</v>
@@ -20660,14 +22807,11 @@
       <c r="G43">
         <v>168</v>
       </c>
-      <c r="H43">
-        <v>168</v>
-      </c>
       <c r="I43">
-        <v>0</v>
+        <v>2.8199999999999999E-2</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>4.7800000000000002E-2</v>
       </c>
       <c r="K43">
         <v>9.4E-2</v>
@@ -20694,7 +22838,7 @@
         <v>0</v>
       </c>
       <c r="S43">
-        <v>0.3</v>
+        <v>0.1205</v>
       </c>
       <c r="T43">
         <v>1</v>
@@ -20773,14 +22917,11 @@
       <c r="G44">
         <v>169</v>
       </c>
-      <c r="H44">
-        <v>169</v>
-      </c>
       <c r="I44">
-        <v>0</v>
+        <v>2.8199999999999999E-2</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>4.7800000000000002E-2</v>
       </c>
       <c r="K44">
         <v>9.4E-2</v>
@@ -20807,7 +22948,7 @@
         <v>0</v>
       </c>
       <c r="S44">
-        <v>0.3</v>
+        <v>0.19670000000000001</v>
       </c>
       <c r="T44">
         <v>1</v>
@@ -20886,14 +23027,11 @@
       <c r="G45">
         <v>170</v>
       </c>
-      <c r="H45">
-        <v>170</v>
-      </c>
       <c r="I45">
         <v>2.8199999999999999E-2</v>
       </c>
       <c r="J45">
-        <v>-9.8999999999999991E-3</v>
+        <v>-9.8700000000000003E-3</v>
       </c>
       <c r="K45">
         <v>9.4E-2</v>
@@ -20920,7 +23058,7 @@
         <v>0</v>
       </c>
       <c r="S45">
-        <v>0.3</v>
+        <v>0.1119</v>
       </c>
       <c r="T45">
         <v>1</v>
@@ -20999,14 +23137,11 @@
       <c r="G46">
         <v>182</v>
       </c>
-      <c r="H46">
-        <v>182</v>
-      </c>
       <c r="I46">
         <v>5.2499999999999998E-2</v>
       </c>
       <c r="J46">
-        <v>2.1499999999999998E-2</v>
+        <v>2.1520000000000001E-2</v>
       </c>
       <c r="K46">
         <v>0.17499999999999999</v>
@@ -21033,7 +23168,7 @@
         <v>0</v>
       </c>
       <c r="S46">
-        <v>0.3</v>
+        <v>0.13109999999999999</v>
       </c>
       <c r="T46">
         <v>1</v>
@@ -21112,14 +23247,11 @@
       <c r="G47">
         <v>183</v>
       </c>
-      <c r="H47">
-        <v>183</v>
-      </c>
       <c r="I47">
         <v>7.980000000000001E-2</v>
       </c>
       <c r="J47">
-        <v>5.7299999999999997E-2</v>
+        <v>5.7259999999999998E-2</v>
       </c>
       <c r="K47">
         <v>0.26600000000000001</v>
@@ -21146,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="S47">
-        <v>0.3</v>
+        <v>0.13850000000000001</v>
       </c>
       <c r="T47">
         <v>1</v>
@@ -21225,14 +23357,11 @@
       <c r="G48">
         <v>196</v>
       </c>
-      <c r="H48">
-        <v>196</v>
-      </c>
       <c r="I48">
-        <v>0</v>
+        <v>0.20250000000000001</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>0.18778</v>
       </c>
       <c r="K48">
         <v>0.67500000000000004</v>
@@ -21259,7 +23388,7 @@
         <v>0</v>
       </c>
       <c r="S48">
-        <v>0.3</v>
+        <v>0.17730000000000001</v>
       </c>
       <c r="T48">
         <v>1</v>
@@ -21338,14 +23467,11 @@
       <c r="G49">
         <v>197</v>
       </c>
-      <c r="H49">
-        <v>197</v>
-      </c>
       <c r="I49">
-        <v>0</v>
+        <v>0.20250000000000001</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>0.13388</v>
       </c>
       <c r="K49">
         <v>0.67500000000000004</v>
@@ -21372,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="S49">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="T49">
         <v>1</v>
@@ -21440,7 +23566,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" sqref="A1:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21614,9 +23740,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AC246"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -41317,11 +43443,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -41345,93 +43471,136 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>581</v>
+      <c r="D2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -43194,47 +45363,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE72E7CD-E669-534F-B6BF-CA0FA7EF8AC8}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>582</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>